--- a/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
@@ -707,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
@@ -1025,13 +1025,13 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.44</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1168,16 +1168,16 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1198,16 +1198,16 @@
         <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1513,7 +1513,7 @@
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.36</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
@@ -1752,13 +1752,13 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M11" t="n">
         <v>2.2</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -2126,10 +2126,10 @@
         <v>2.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>1.62</v>
@@ -2138,10 +2138,10 @@
         <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
@@ -2585,19 +2585,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.62</v>
@@ -2612,10 +2612,10 @@
         <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>2.75</v>
@@ -2658,7 +2658,7 @@
         <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>21</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2726,10 +2726,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2747,13 +2747,13 @@
         <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2762,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2777,13 +2777,13 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
@@ -2830,10 +2830,10 @@
         <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2866,13 +2866,13 @@
         <v>2.25</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
         <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W20" t="n">
         <v>17</v>
@@ -2884,13 +2884,13 @@
         <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>41</v>
@@ -2899,7 +2899,7 @@
         <v>126</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
@@ -3080,22 +3080,22 @@
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P22" t="n">
         <v>1.25</v>
@@ -3193,49 +3193,49 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
         <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U23" t="n">
         <v>10</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
-        <v>9.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
@@ -3250,13 +3250,13 @@
         <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>41</v>
@@ -3280,7 +3280,7 @@
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
         <v>65</v>
       </c>
       <c r="AD26" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE26" t="n">
         <v>7.7</v>
@@ -3790,16 +3790,16 @@
         <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
         <v>1.17</v>
@@ -3820,13 +3820,13 @@
         <v>3.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U28" t="n">
         <v>9</v>
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>8</v>
@@ -3865,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
         <v>51</v>
@@ -3930,10 +3930,10 @@
         <v>5.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H30" t="n">
         <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -4064,10 +4064,10 @@
         <v>3.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -4079,7 +4079,7 @@
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
@@ -4118,7 +4118,7 @@
         <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -4275,19 +4275,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H32" t="n">
         <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
         <v>1.14</v>
@@ -4308,16 +4308,16 @@
         <v>3.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
@@ -4335,7 +4335,7 @@
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4353,7 +4353,7 @@
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
         <v>67</v>
@@ -4802,7 +4802,7 @@
         <v>1.65</v>
       </c>
       <c r="T36" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U36" t="n">
         <v>7.4</v>
@@ -4829,7 +4829,7 @@
         <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD36" t="n">
         <v>700</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -6295,13 +6295,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
@@ -6334,19 +6334,19 @@
         <v>1.93</v>
       </c>
       <c r="T50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y50" t="n">
         <v>35</v>
@@ -6361,25 +6361,25 @@
         <v>15.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD50" t="n">
         <v>700</v>
       </c>
       <c r="AE50" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF50" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ50" t="n">
         <v>37</v>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="J51" t="n">
         <v>1.06</v>
@@ -6441,7 +6441,7 @@
         <v>1.83</v>
       </c>
       <c r="O51" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P51" t="n">
         <v>1.42</v>
@@ -6456,22 +6456,22 @@
         <v>2.15</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V51" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z51" t="n">
         <v>7.9</v>
@@ -6489,22 +6489,22 @@
         <v>400</v>
       </c>
       <c r="AE51" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -6560,10 +6560,10 @@
         <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -6908,22 +6908,22 @@
         <v>1.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I55" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L55" t="n">
         <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N55" t="n">
         <v>2.07</v>
@@ -6935,7 +6935,7 @@
         <v>1.44</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R55" t="n">
         <v>2.12</v>
@@ -6944,10 +6944,10 @@
         <v>1.65</v>
       </c>
       <c r="T55" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U55" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V55" t="n">
         <v>9</v>
@@ -6962,10 +6962,10 @@
         <v>40</v>
       </c>
       <c r="Z55" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA55" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -6975,19 +6975,19 @@
       </c>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG55" t="n">
         <v>20</v>
       </c>
       <c r="AH55" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI55" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="n">
         <v>90</v>
@@ -7025,19 +7025,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J56" t="n">
         <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -7046,7 +7046,7 @@
         <v>3.15</v>
       </c>
       <c r="N56" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O56" t="n">
         <v>1.78</v>
@@ -7067,13 +7067,13 @@
         <v>6.7</v>
       </c>
       <c r="U56" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V56" t="n">
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X56" t="n">
         <v>16.5</v>
@@ -7082,10 +7082,10 @@
         <v>32</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB56" t="n">
         <v>17.5</v>
@@ -7097,10 +7097,10 @@
         <v>800</v>
       </c>
       <c r="AE56" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG56" t="n">
         <v>14</v>
@@ -7109,7 +7109,7 @@
         <v>60</v>
       </c>
       <c r="AI56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="n">
         <v>50</v>
@@ -8542,10 +8542,10 @@
         <v>19</v>
       </c>
       <c r="L70" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N70" t="n">
         <v>1.53</v>
@@ -8652,7 +8652,7 @@
         <v>2.45</v>
       </c>
       <c r="H71" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I71" t="n">
         <v>2.6</v>
@@ -8661,19 +8661,19 @@
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L71" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O71" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P71" t="n">
         <v>1.29</v>
@@ -8682,13 +8682,13 @@
         <v>3.5</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S71" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U71" t="n">
         <v>15</v>
@@ -8697,16 +8697,16 @@
         <v>10</v>
       </c>
       <c r="W71" t="n">
+        <v>26</v>
+      </c>
+      <c r="X71" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y71" t="n">
         <v>23</v>
       </c>
-      <c r="X71" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>21</v>
-      </c>
       <c r="Z71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA71" t="n">
         <v>7.5</v>
@@ -8718,10 +8718,10 @@
         <v>34</v>
       </c>
       <c r="AD71" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
         <v>15</v>
@@ -8736,7 +8736,7 @@
         <v>19</v>
       </c>
       <c r="AJ71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -8810,7 +8810,7 @@
         <v>2.63</v>
       </c>
       <c r="T72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U72" t="n">
         <v>17</v>
@@ -8893,13 +8893,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J73" t="n">
         <v>1.03</v>
@@ -8935,7 +8935,7 @@
         <v>11</v>
       </c>
       <c r="U73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V73" t="n">
         <v>9.5</v>
@@ -8962,10 +8962,10 @@
         <v>34</v>
       </c>
       <c r="AD73" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF73" t="n">
         <v>17</v>
@@ -9381,94 +9381,94 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I77" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K77" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L77" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M77" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N77" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="R77" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T77" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="U77" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V77" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W77" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X77" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y77" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AD77" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE77" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF77" t="n">
         <v>40</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI77" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ77" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H88" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I88" t="n">
         <v>1.67</v>
@@ -10642,16 +10642,16 @@
         <v>2.5</v>
       </c>
       <c r="T88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U88" t="n">
         <v>26</v>
       </c>
       <c r="V88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W88" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X88" t="n">
         <v>29</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>5.5</v>
@@ -10737,7 +10737,7 @@
         <v>1.01</v>
       </c>
       <c r="K89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L89" t="n">
         <v>1.1</v>
@@ -10752,25 +10752,25 @@
         <v>3.4</v>
       </c>
       <c r="P89" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q89" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
       </c>
       <c r="U89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W89" t="n">
         <v>10</v>
@@ -10782,7 +10782,7 @@
         <v>19</v>
       </c>
       <c r="Z89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA89" t="n">
         <v>12</v>
@@ -10794,10 +10794,10 @@
         <v>41</v>
       </c>
       <c r="AD89" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF89" t="n">
         <v>41</v>
@@ -10850,10 +10850,10 @@
         <v>1.91</v>
       </c>
       <c r="H90" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J90" t="n">
         <v>1.03</v>
@@ -10862,31 +10862,31 @@
         <v>9.25</v>
       </c>
       <c r="L90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M90" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="N90" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O90" t="n">
         <v>2.32</v>
       </c>
       <c r="P90" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q90" t="n">
         <v>3.3</v>
       </c>
       <c r="R90" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S90" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T90" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U90" t="n">
         <v>11.25</v>
@@ -10901,13 +10901,13 @@
         <v>13.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z90" t="n">
         <v>9.25</v>
       </c>
       <c r="AA90" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB90" t="n">
         <v>12.5</v>
@@ -10919,10 +10919,10 @@
         <v>250</v>
       </c>
       <c r="AE90" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG90" t="n">
         <v>11.75</v>
@@ -10934,7 +10934,7 @@
         <v>25</v>
       </c>
       <c r="AJ90" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -11330,10 +11330,10 @@
         <v>3.95</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I94" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -11344,24 +11344,24 @@
         <v>3.6</v>
       </c>
       <c r="N94" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O94" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S94" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="U94" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V94" t="n">
         <v>13.5</v>
@@ -11373,13 +11373,13 @@
         <v>32</v>
       </c>
       <c r="Y94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -11406,7 +11406,7 @@
         <v>12</v>
       </c>
       <c r="AJ94" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="95">
@@ -12023,13 +12023,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J100" t="n">
         <v>1.02</v>
@@ -12056,10 +12056,10 @@
         <v>4</v>
       </c>
       <c r="R100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S100" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -12068,7 +12068,7 @@
         <v>15</v>
       </c>
       <c r="V100" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W100" t="n">
         <v>23</v>
@@ -12086,7 +12086,7 @@
         <v>8</v>
       </c>
       <c r="AB100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC100" t="n">
         <v>26</v>
@@ -12098,13 +12098,13 @@
         <v>17</v>
       </c>
       <c r="AF100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI100" t="n">
         <v>19</v>
@@ -12267,13 +12267,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J102" t="n">
         <v>1.1</v>
@@ -12288,10 +12288,10 @@
         <v>2.5</v>
       </c>
       <c r="N102" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O102" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P102" t="n">
         <v>1.57</v>
@@ -12335,9 +12335,11 @@
       <c r="AC102" t="n">
         <v>67</v>
       </c>
-      <c r="AD102" t="inlineStr"/>
+      <c r="AD102" t="n">
+        <v>501</v>
+      </c>
       <c r="AE102" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF102" t="n">
         <v>12</v>
@@ -12349,7 +12351,7 @@
         <v>29</v>
       </c>
       <c r="AI102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ102" t="n">
         <v>41</v>
@@ -12603,13 +12605,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I105" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -12626,55 +12628,55 @@
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="n">
+        <v>13</v>
+      </c>
+      <c r="U105" t="n">
+        <v>23</v>
+      </c>
+      <c r="V105" t="n">
         <v>12</v>
       </c>
-      <c r="U105" t="n">
-        <v>20</v>
-      </c>
-      <c r="V105" t="n">
-        <v>11</v>
-      </c>
       <c r="W105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X105" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y105" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z105" t="n">
         <v>13</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC105" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD105" t="n">
         <v>200</v>
       </c>
       <c r="AE105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF105" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>8</v>
       </c>
       <c r="AG105" t="n">
         <v>6.9</v>
       </c>
       <c r="AH105" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AI105" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ105" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -13896,10 +13898,10 @@
         <v>4.5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O121" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P121" t="n">
         <v>1.29</v>
@@ -15456,10 +15458,10 @@
         <v>3.1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L134" t="n">
         <v>1.14</v>
@@ -15468,10 +15470,10 @@
         <v>5.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O134" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P134" t="n">
         <v>1.25</v>
@@ -16194,10 +16196,10 @@
         <v>17</v>
       </c>
       <c r="L140" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M140" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N140" t="n">
         <v>1.57</v>
@@ -16545,94 +16547,94 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H143" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I143" t="n">
         <v>2.4</v>
       </c>
       <c r="J143" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K143" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M143" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N143" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P143" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S143" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T143" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U143" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="V143" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W143" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="X143" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y143" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z143" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB143" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD143" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE143" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AF143" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG143" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH143" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI143" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ143" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
@@ -16789,7 +16791,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H145" t="n">
         <v>3.8</v>
@@ -16804,16 +16806,16 @@
         <v>13</v>
       </c>
       <c r="L145" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M145" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N145" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O145" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P145" t="n">
         <v>1.33</v>
@@ -16828,7 +16830,7 @@
         <v>1.83</v>
       </c>
       <c r="T145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U145" t="n">
         <v>7.5</v>
@@ -16858,7 +16860,7 @@
         <v>51</v>
       </c>
       <c r="AD145" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE145" t="n">
         <v>15</v>
@@ -18146,36 +18148,96 @@
           <t>Jedinstvo U.</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr"/>
-      <c r="AB165" t="inlineStr"/>
-      <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
-      <c r="AF165" t="inlineStr"/>
-      <c r="AG165" t="inlineStr"/>
-      <c r="AH165" t="inlineStr"/>
-      <c r="AI165" t="inlineStr"/>
-      <c r="AJ165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H165" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K165" t="n">
+        <v>9</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M165" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O165" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S165" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T165" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U165" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V165" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X165" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18208,36 +18270,96 @@
           <t>Tekstilac Odzaci</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
-      <c r="AA166" t="inlineStr"/>
-      <c r="AB166" t="inlineStr"/>
-      <c r="AC166" t="inlineStr"/>
-      <c r="AD166" t="inlineStr"/>
-      <c r="AE166" t="inlineStr"/>
-      <c r="AF166" t="inlineStr"/>
-      <c r="AG166" t="inlineStr"/>
-      <c r="AH166" t="inlineStr"/>
-      <c r="AI166" t="inlineStr"/>
-      <c r="AJ166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+      <c r="I166" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K166" t="n">
+        <v>9</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M166" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T166" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V166" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W166" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X166" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18270,36 +18392,92 @@
           <t>Mladost</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H167" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I167" t="n">
+        <v>13</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
-      <c r="AA167" t="inlineStr"/>
-      <c r="AB167" t="inlineStr"/>
-      <c r="AC167" t="inlineStr"/>
-      <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr"/>
-      <c r="AF167" t="inlineStr"/>
-      <c r="AG167" t="inlineStr"/>
-      <c r="AH167" t="inlineStr"/>
-      <c r="AI167" t="inlineStr"/>
-      <c r="AJ167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M167" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>16</v>
+      </c>
+      <c r="U167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V167" t="n">
+        <v>12</v>
+      </c>
+      <c r="W167" t="n">
+        <v>8</v>
+      </c>
+      <c r="X167" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>600</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18333,64 +18511,76 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I168" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K168" t="n">
+        <v>34</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M168" t="n">
+        <v>9</v>
+      </c>
       <c r="N168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O168" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>5</v>
+      </c>
+      <c r="R168" t="n">
         <v>1.3</v>
       </c>
-      <c r="O168" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S168" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U168" t="n">
         <v>19</v>
       </c>
       <c r="V168" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="W168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X168" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y168" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z168" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA168" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB168" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC168" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD168" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AE168" t="n">
         <v>19</v>
@@ -18399,13 +18589,13 @@
         <v>21</v>
       </c>
       <c r="AG168" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH168" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI168" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ168" t="n">
         <v>17</v>
@@ -18443,82 +18633,82 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I169" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O169" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S169" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="T169" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V169" t="n">
         <v>8.75</v>
       </c>
       <c r="W169" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="X169" t="n">
         <v>13</v>
       </c>
       <c r="Y169" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB169" t="n">
         <v>11.5</v>
       </c>
       <c r="AC169" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD169" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE169" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF169" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI169" t="n">
         <v>23</v>
       </c>
-      <c r="AG169" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ169" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
@@ -18615,94 +18805,94 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H171" t="n">
         <v>3.85</v>
       </c>
       <c r="I171" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J171" t="n">
         <v>1.04</v>
       </c>
       <c r="K171" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="L171" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M171" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N171" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O171" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P171" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q171" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R171" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S171" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="T171" t="n">
+        <v>16</v>
+      </c>
+      <c r="U171" t="n">
+        <v>29</v>
+      </c>
+      <c r="V171" t="n">
         <v>14</v>
-      </c>
-      <c r="U171" t="n">
-        <v>27</v>
-      </c>
-      <c r="V171" t="n">
-        <v>14.5</v>
       </c>
       <c r="W171" t="n">
         <v>75</v>
       </c>
       <c r="X171" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y171" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z171" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA171" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB171" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC171" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AD171" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AE171" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AF171" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG171" t="n">
         <v>8</v>
       </c>
       <c r="AH171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI171" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ171" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="172">
@@ -19002,10 +19192,10 @@
         <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O174" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P174" t="n">
         <v>1.36</v>
@@ -19225,13 +19415,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J176" t="n">
         <v>1.05</v>
@@ -19279,7 +19469,7 @@
         <v>34</v>
       </c>
       <c r="Y176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z176" t="n">
         <v>11</v>
@@ -19368,10 +19558,10 @@
         <v>3.75</v>
       </c>
       <c r="N177" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O177" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P177" t="n">
         <v>1.36</v>
@@ -19484,16 +19674,16 @@
         <v>9</v>
       </c>
       <c r="L178" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M178" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N178" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O178" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P178" t="n">
         <v>1.44</v>
@@ -19591,10 +19781,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H179" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I179" t="n">
         <v>4.5</v>
@@ -19612,10 +19802,10 @@
         <v>3.75</v>
       </c>
       <c r="N179" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O179" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P179" t="n">
         <v>1.36</v>
@@ -19648,7 +19838,7 @@
         <v>26</v>
       </c>
       <c r="Z179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA179" t="n">
         <v>7.5</v>
@@ -19660,10 +19850,10 @@
         <v>51</v>
       </c>
       <c r="AD179" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF179" t="n">
         <v>23</v>
@@ -22149,13 +22339,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>3.5</v>
       </c>
       <c r="I200" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J200" t="n">
         <v>1.05</v>
@@ -22191,7 +22381,7 @@
         <v>7.5</v>
       </c>
       <c r="U200" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V200" t="n">
         <v>8.5</v>
@@ -22218,13 +22408,13 @@
         <v>51</v>
       </c>
       <c r="AD200" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF200" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG200" t="n">
         <v>13</v>
@@ -22233,10 +22423,10 @@
         <v>41</v>
       </c>
       <c r="AI200" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ200" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201">
@@ -22515,7 +22705,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H203" t="n">
         <v>4.33</v>
@@ -22527,7 +22717,7 @@
         <v>1.01</v>
       </c>
       <c r="K203" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L203" t="n">
         <v>1.1</v>
@@ -22572,13 +22762,13 @@
         <v>17</v>
       </c>
       <c r="Z203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC203" t="n">
         <v>26</v>
@@ -22602,7 +22792,7 @@
         <v>23</v>
       </c>
       <c r="AJ203" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204">
@@ -22759,13 +22949,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H205" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I205" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J205" t="n">
         <v>1.02</v>
@@ -22786,10 +22976,10 @@
         <v>2.6</v>
       </c>
       <c r="P205" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q205" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R205" t="n">
         <v>1.44</v>
@@ -22807,16 +22997,16 @@
         <v>9</v>
       </c>
       <c r="W205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X205" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y205" t="n">
         <v>19</v>
       </c>
       <c r="Z205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA205" t="n">
         <v>8</v>
@@ -22840,10 +23030,10 @@
         <v>12</v>
       </c>
       <c r="AH205" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ205" t="n">
         <v>23</v>
@@ -23024,10 +23214,10 @@
         <v>5.5</v>
       </c>
       <c r="N207" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O207" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P207" t="n">
         <v>1.25</v>
@@ -23596,36 +23786,96 @@
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr"/>
-      <c r="W212" t="inlineStr"/>
-      <c r="X212" t="inlineStr"/>
-      <c r="Y212" t="inlineStr"/>
-      <c r="Z212" t="inlineStr"/>
-      <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="inlineStr"/>
-      <c r="AE212" t="inlineStr"/>
-      <c r="AF212" t="inlineStr"/>
-      <c r="AG212" t="inlineStr"/>
-      <c r="AH212" t="inlineStr"/>
-      <c r="AI212" t="inlineStr"/>
-      <c r="AJ212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K212" t="n">
+        <v>9</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M212" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O212" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T212" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U212" t="n">
+        <v>11</v>
+      </c>
+      <c r="V212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X212" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23658,36 +23908,96 @@
           <t>Ittihad Kalba</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
-      <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr"/>
-      <c r="Z213" t="inlineStr"/>
-      <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="inlineStr"/>
-      <c r="AE213" t="inlineStr"/>
-      <c r="AF213" t="inlineStr"/>
-      <c r="AG213" t="inlineStr"/>
-      <c r="AH213" t="inlineStr"/>
-      <c r="AI213" t="inlineStr"/>
-      <c r="AJ213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K213" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O213" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T213" t="n">
+        <v>13</v>
+      </c>
+      <c r="U213" t="n">
+        <v>20</v>
+      </c>
+      <c r="V213" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W213" t="n">
+        <v>45</v>
+      </c>
+      <c r="X213" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -24083,13 +24393,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="H217" t="n">
         <v>3</v>
       </c>
       <c r="I217" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -24118,25 +24428,25 @@
         <v>1.75</v>
       </c>
       <c r="T217" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="U217" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V217" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W217" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X217" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y217" t="n">
         <v>37</v>
       </c>
       <c r="Z217" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA217" t="n">
         <v>5.8</v>
@@ -24145,25 +24455,25 @@
         <v>15.5</v>
       </c>
       <c r="AC217" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD217" t="n">
         <v>800</v>
       </c>
       <c r="AE217" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AF217" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG217" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH217" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI217" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ217" t="n">
         <v>40</v>
@@ -24275,7 +24585,7 @@
         <v>1.04</v>
       </c>
       <c r="K219" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L219" t="n">
         <v>1.25</v>
@@ -24385,7 +24695,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H220" t="n">
         <v>4.2</v>
@@ -24406,10 +24716,10 @@
         <v>5</v>
       </c>
       <c r="N220" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O220" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P220" t="n">
         <v>1.25</v>
@@ -24427,7 +24737,7 @@
         <v>9.5</v>
       </c>
       <c r="U220" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V220" t="n">
         <v>8.5</v>
@@ -24454,7 +24764,7 @@
         <v>41</v>
       </c>
       <c r="AD220" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE220" t="n">
         <v>17</v>
@@ -24995,13 +25305,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>3.6</v>
       </c>
       <c r="I225" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J225" t="n">
         <v>1.03</v>
@@ -25037,7 +25347,7 @@
         <v>11</v>
       </c>
       <c r="U225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V225" t="n">
         <v>9</v>
@@ -25058,13 +25368,13 @@
         <v>7</v>
       </c>
       <c r="AB225" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC225" t="n">
         <v>34</v>
       </c>
       <c r="AD225" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE225" t="n">
         <v>13</v>
@@ -25073,13 +25383,13 @@
         <v>19</v>
       </c>
       <c r="AG225" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH225" t="n">
         <v>34</v>
       </c>
       <c r="AI225" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ225" t="n">
         <v>26</v>
@@ -25620,16 +25930,16 @@
         <v>13</v>
       </c>
       <c r="L230" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M230" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N230" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O230" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P230" t="n">
         <v>1.33</v>
@@ -25861,7 +26171,7 @@
         <v>1.07</v>
       </c>
       <c r="K232" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L232" t="n">
         <v>1.34</v>
@@ -25870,10 +26180,10 @@
         <v>3</v>
       </c>
       <c r="N232" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O232" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P232" t="n">
         <v>1.44</v>
@@ -25906,7 +26216,7 @@
         <v>32</v>
       </c>
       <c r="Z232" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA232" t="n">
         <v>6.3</v>
@@ -25921,7 +26231,7 @@
         <v>600</v>
       </c>
       <c r="AE232" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF232" t="n">
         <v>11.75</v>
@@ -25974,13 +26284,13 @@
         <v>1.7</v>
       </c>
       <c r="H233" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I233" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J233" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K233" t="n">
         <v>6</v>
@@ -26013,7 +26323,7 @@
         <v>5.2</v>
       </c>
       <c r="U233" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V233" t="n">
         <v>9</v>
@@ -26031,7 +26341,7 @@
         <v>6</v>
       </c>
       <c r="AA233" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB233" t="n">
         <v>22</v>
@@ -26041,19 +26351,19 @@
       </c>
       <c r="AD233" t="inlineStr"/>
       <c r="AE233" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF233" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG233" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH233" t="n">
         <v>90</v>
       </c>
       <c r="AI233" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ233" t="n">
         <v>80</v>
@@ -26213,49 +26523,49 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H235" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I235" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J235" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K235" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M235" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="N235" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="O235" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P235" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="R235" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S235" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T235" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="U235" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V235" t="n">
         <v>10</v>
@@ -26267,40 +26577,40 @@
         <v>22</v>
       </c>
       <c r="Y235" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z235" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA235" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB235" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF235" t="n">
         <v>13</v>
       </c>
-      <c r="AC235" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD235" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE235" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>12</v>
-      </c>
       <c r="AG235" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH235" t="n">
         <v>25</v>
       </c>
       <c r="AI235" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ235" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
@@ -26704,46 +27014,46 @@
         <v>2.65</v>
       </c>
       <c r="H239" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I239" t="n">
         <v>2.32</v>
       </c>
       <c r="J239" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K239" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L239" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M239" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N239" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O239" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P239" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S239" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T239" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U239" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V239" t="n">
         <v>10</v>
@@ -26758,10 +27068,10 @@
         <v>30</v>
       </c>
       <c r="Z239" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA239" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB239" t="n">
         <v>14</v>
@@ -26782,10 +27092,10 @@
         <v>9.25</v>
       </c>
       <c r="AH239" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI239" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ239" t="n">
         <v>28</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
@@ -781,7 +781,7 @@
         <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L3" t="n">
         <v>1.1</v>
@@ -1138,7 +1138,7 @@
         <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1168,19 +1168,19 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
@@ -1192,19 +1192,19 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1391,7 +1391,7 @@
         <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
@@ -1877,7 +1877,7 @@
         <v>1.17</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.8</v>
@@ -1910,7 +1910,7 @@
         <v>6.5</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W12" t="n">
         <v>15</v>
@@ -1922,7 +1922,7 @@
         <v>51</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
@@ -1931,7 +1931,7 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
@@ -1947,7 +1947,7 @@
         <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
         <v>81</v>
@@ -2105,19 +2105,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2126,10 +2126,10 @@
         <v>2.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
         <v>1.62</v>
@@ -2138,10 +2138,10 @@
         <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -2162,7 +2162,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.67</v>
@@ -2252,10 +2252,10 @@
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
         <v>2.75</v>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2295,13 +2295,13 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2474,10 +2474,10 @@
         <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.57</v>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
@@ -2522,10 +2522,10 @@
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
@@ -2538,10 +2538,10 @@
         <v>8</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2836,10 +2836,10 @@
         <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
         <v>1.2</v>
@@ -2848,10 +2848,10 @@
         <v>4.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P20" t="n">
         <v>1.29</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2982,58 +2982,58 @@
         <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W21" t="n">
         <v>9</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
@@ -3214,10 +3214,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3437,13 +3437,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>1.02</v>
@@ -3464,31 +3464,31 @@
         <v>3.05</v>
       </c>
       <c r="P25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y25" t="n">
         <v>15.5</v>
@@ -3497,7 +3497,7 @@
         <v>10.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3506,13 +3506,13 @@
         <v>30</v>
       </c>
       <c r="AD25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>13.5</v>
@@ -3521,7 +3521,7 @@
         <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -3596,7 +3596,7 @@
         <v>25</v>
       </c>
       <c r="V26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
         <v>70</v>
@@ -3611,22 +3611,22 @@
         <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
         <v>65</v>
       </c>
       <c r="AD26" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE26" t="n">
         <v>7.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8.25</v>
@@ -4174,10 +4174,10 @@
         <v>4.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
         <v>1.3</v>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>4.2</v>
@@ -4284,10 +4284,10 @@
         <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
         <v>1.14</v>
@@ -4314,16 +4314,16 @@
         <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4335,16 +4335,16 @@
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
@@ -4534,16 +4534,16 @@
         <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
         <v>1.44</v>
@@ -4775,7 +4775,7 @@
         <v>1.09</v>
       </c>
       <c r="K36" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.42</v>
@@ -4802,7 +4802,7 @@
         <v>1.65</v>
       </c>
       <c r="T36" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U36" t="n">
         <v>7.4</v>
@@ -4820,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA36" t="n">
         <v>6.6</v>
@@ -4829,7 +4829,7 @@
         <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD36" t="n">
         <v>700</v>
@@ -5008,7 +5008,7 @@
         <v>2.52</v>
       </c>
       <c r="H38" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I38" t="n">
         <v>2.92</v>
@@ -5044,19 +5044,19 @@
         <v>1.65</v>
       </c>
       <c r="T38" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U38" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V38" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W38" t="n">
         <v>27</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
         <v>45</v>
@@ -5075,13 +5075,13 @@
       </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
         <v>37</v>
@@ -5140,10 +5140,10 @@
         <v>6.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N39" t="n">
         <v>2.25</v>
@@ -5158,10 +5158,10 @@
         <v>2.37</v>
       </c>
       <c r="R39" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T39" t="n">
         <v>5.5</v>
@@ -5179,7 +5179,7 @@
         <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="n">
         <v>6.2</v>
@@ -5210,7 +5210,7 @@
         <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -6196,15 +6196,9 @@
           <t>Botev Plovdiv II</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I49" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -6304,85 +6298,85 @@
         <v>2.62</v>
       </c>
       <c r="J50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M50" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="N50" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P50" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R50" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="U50" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V50" t="n">
         <v>10.25</v>
       </c>
       <c r="W50" t="n">
+        <v>32</v>
+      </c>
+      <c r="X50" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y50" t="n">
         <v>30</v>
       </c>
-      <c r="X50" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>35</v>
-      </c>
       <c r="Z50" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB50" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC50" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD50" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE50" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH50" t="n">
         <v>32</v>
       </c>
       <c r="AI50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ50" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6450,16 +6444,16 @@
         <v>2.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T51" t="n">
         <v>9.25</v>
       </c>
       <c r="U51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V51" t="n">
         <v>10</v>
@@ -6492,16 +6486,16 @@
         <v>8.75</v>
       </c>
       <c r="AF51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG51" t="n">
         <v>10.25</v>
       </c>
       <c r="AH51" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ51" t="n">
         <v>30</v>
@@ -6905,13 +6899,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
@@ -6920,10 +6914,10 @@
         <v>7.1</v>
       </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M55" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="N55" t="n">
         <v>2.07</v>
@@ -6938,59 +6932,59 @@
         <v>2.67</v>
       </c>
       <c r="R55" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S55" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T55" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U55" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="V55" t="n">
         <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X55" t="n">
         <v>15.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z55" t="n">
         <v>7.1</v>
       </c>
       <c r="AA55" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF55" t="n">
         <v>32</v>
       </c>
       <c r="AG55" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI55" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="56">
@@ -7147,94 +7141,94 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M57" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P57" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T57" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V57" t="n">
         <v>9.25</v>
       </c>
-      <c r="V57" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W57" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="X57" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB57" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD57" t="n">
         <v>1250</v>
       </c>
       <c r="AE57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH57" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
@@ -7574,36 +7568,90 @@
           <t>Real Cundinamarca</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X61" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>150</v>
+      </c>
       <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
+      <c r="AE61" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8304,10 +8352,10 @@
         <v>4.33</v>
       </c>
       <c r="N68" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O68" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P68" t="n">
         <v>1.3</v>
@@ -8414,22 +8462,22 @@
         <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M69" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P69" t="n">
         <v>1.33</v>
@@ -8447,7 +8495,7 @@
         <v>8</v>
       </c>
       <c r="U69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V69" t="n">
         <v>8.5</v>
@@ -8462,7 +8510,7 @@
         <v>23</v>
       </c>
       <c r="Z69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA69" t="n">
         <v>7.5</v>
@@ -8548,10 +8596,10 @@
         <v>5.5</v>
       </c>
       <c r="N70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O70" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P70" t="n">
         <v>1.25</v>
@@ -8893,13 +8941,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1.03</v>
@@ -8938,10 +8986,10 @@
         <v>13</v>
       </c>
       <c r="V73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X73" t="n">
         <v>17</v>
@@ -8974,13 +9022,13 @@
         <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI73" t="n">
         <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -9015,13 +9063,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J74" t="n">
         <v>1.06</v>
@@ -9057,10 +9105,10 @@
         <v>9.5</v>
       </c>
       <c r="U74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W74" t="n">
         <v>23</v>
@@ -9078,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="AB74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC74" t="n">
         <v>41</v>
@@ -9090,13 +9138,13 @@
         <v>11</v>
       </c>
       <c r="AF74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI74" t="n">
         <v>23</v>
@@ -9137,13 +9185,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
         <v>1.05</v>
@@ -9152,10 +9200,10 @@
         <v>11</v>
       </c>
       <c r="L75" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M75" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N75" t="n">
         <v>1.9</v>
@@ -9176,7 +9224,7 @@
         <v>2.1</v>
       </c>
       <c r="T75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U75" t="n">
         <v>12</v>
@@ -9185,7 +9233,7 @@
         <v>9.5</v>
       </c>
       <c r="W75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X75" t="n">
         <v>19</v>
@@ -9206,7 +9254,7 @@
         <v>41</v>
       </c>
       <c r="AD75" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE75" t="n">
         <v>10</v>
@@ -9221,7 +9269,7 @@
         <v>29</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
         <v>29</v>
@@ -9747,10 +9795,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I80" t="n">
         <v>3.4</v>
@@ -9768,10 +9816,10 @@
         <v>2.63</v>
       </c>
       <c r="N80" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P80" t="n">
         <v>1.53</v>
@@ -9789,7 +9837,7 @@
         <v>6</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V80" t="n">
         <v>10</v>
@@ -9798,7 +9846,7 @@
         <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="n">
         <v>41</v>
@@ -9810,7 +9858,7 @@
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC80" t="n">
         <v>67</v>
@@ -9819,7 +9867,7 @@
         <v>501</v>
       </c>
       <c r="AE80" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF80" t="n">
         <v>15</v>
@@ -10003,7 +10051,7 @@
         <v>1.03</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L82" t="n">
         <v>1.17</v>
@@ -10012,10 +10060,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O82" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P82" t="n">
         <v>1.25</v>
@@ -10146,10 +10194,10 @@
         <v>3.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S83" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T83" t="n">
         <v>23</v>
@@ -10234,36 +10282,84 @@
           <t>Dila Gori</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.4</v>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W84" t="n">
+        <v>40</v>
+      </c>
+      <c r="X84" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10603,19 +10699,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H88" t="n">
         <v>4.2</v>
       </c>
       <c r="I88" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J88" t="n">
         <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L88" t="n">
         <v>1.13</v>
@@ -10645,7 +10741,7 @@
         <v>19</v>
       </c>
       <c r="U88" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V88" t="n">
         <v>15</v>
@@ -10728,7 +10824,7 @@
         <v>1.3</v>
       </c>
       <c r="H89" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I89" t="n">
         <v>7</v>
@@ -10758,16 +10854,16 @@
         <v>4.5</v>
       </c>
       <c r="R89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
       </c>
       <c r="U89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V89" t="n">
         <v>9.5</v>
@@ -10785,7 +10881,7 @@
         <v>26</v>
       </c>
       <c r="AA89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB89" t="n">
         <v>17</v>
@@ -11327,86 +11423,86 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="I94" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M94" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N94" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O94" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S94" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T94" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="U94" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V94" t="n">
+        <v>12</v>
+      </c>
+      <c r="W94" t="n">
+        <v>55</v>
+      </c>
+      <c r="X94" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z94" t="n">
         <v>13.5</v>
       </c>
-      <c r="W94" t="n">
-        <v>60</v>
-      </c>
-      <c r="X94" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA94" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AB94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC94" t="n">
         <v>45</v>
       </c>
       <c r="AD94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE94" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF94" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG94" t="n">
         <v>8.25</v>
       </c>
       <c r="AH94" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -11441,13 +11537,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>3.8</v>
       </c>
       <c r="I95" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -11455,13 +11551,13 @@
         <v>1.19</v>
       </c>
       <c r="M95" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N95" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O95" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -11472,28 +11568,28 @@
         <v>2.15</v>
       </c>
       <c r="T95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U95" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="V95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W95" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y95" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z95" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB95" t="n">
         <v>13</v>
@@ -11505,22 +11601,22 @@
         <v>300</v>
       </c>
       <c r="AE95" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF95" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -11669,13 +11765,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I97" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -11685,7 +11781,7 @@
         <v>1.47</v>
       </c>
       <c r="O97" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
@@ -11696,19 +11792,19 @@
         <v>2</v>
       </c>
       <c r="T97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U97" t="n">
         <v>40</v>
       </c>
       <c r="V97" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="W97" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X97" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y97" t="n">
         <v>45</v>
@@ -11732,16 +11828,16 @@
         <v>9.25</v>
       </c>
       <c r="AF97" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG97" t="n">
         <v>8.25</v>
       </c>
       <c r="AH97" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ97" t="n">
         <v>21</v>
@@ -12389,13 +12485,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H103" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I103" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -12412,55 +12508,55 @@
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U103" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="V103" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W103" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="X103" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Y103" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z103" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB103" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC103" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD103" t="n">
         <v>600</v>
       </c>
       <c r="AE103" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="AF103" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AG103" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH103" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AI103" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ103" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
@@ -12501,7 +12597,7 @@
         <v>3.25</v>
       </c>
       <c r="I104" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -12537,16 +12633,16 @@
         <v>22</v>
       </c>
       <c r="Y104" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z104" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB104" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC104" t="n">
         <v>50</v>
@@ -12555,7 +12651,7 @@
         <v>350</v>
       </c>
       <c r="AE104" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF104" t="n">
         <v>8.5</v>
@@ -12567,7 +12663,7 @@
         <v>16</v>
       </c>
       <c r="AI104" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ104" t="n">
         <v>22</v>
@@ -12605,10 +12701,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="H105" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I105" t="n">
         <v>1.65</v>
@@ -12640,7 +12736,7 @@
         <v>55</v>
       </c>
       <c r="X105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y105" t="n">
         <v>28</v>
@@ -12655,13 +12751,13 @@
         <v>11.25</v>
       </c>
       <c r="AC105" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD105" t="n">
         <v>200</v>
       </c>
       <c r="AE105" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF105" t="n">
         <v>7.4</v>
@@ -12791,7 +12887,7 @@
         <v>90</v>
       </c>
       <c r="AI106" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ106" t="n">
         <v>45</v>
@@ -13898,10 +13994,10 @@
         <v>4.5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O121" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P121" t="n">
         <v>1.29</v>
@@ -13999,19 +14095,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H122" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I122" t="n">
         <v>1.2</v>
       </c>
       <c r="J122" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L122" t="n">
         <v>1.17</v>
@@ -14044,7 +14140,7 @@
         <v>51</v>
       </c>
       <c r="V122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W122" t="n">
         <v>151</v>
@@ -14059,10 +14155,10 @@
         <v>15</v>
       </c>
       <c r="AA122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC122" t="n">
         <v>81</v>
@@ -14121,13 +14217,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J123" t="n">
         <v>1.03</v>
@@ -14365,19 +14461,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J125" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K125" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.33</v>
@@ -14392,16 +14488,16 @@
         <v>1.73</v>
       </c>
       <c r="P125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S125" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T125" t="n">
         <v>5.5</v>
@@ -14413,7 +14509,7 @@
         <v>9</v>
       </c>
       <c r="W125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X125" t="n">
         <v>15</v>
@@ -14425,10 +14521,10 @@
         <v>8.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC125" t="n">
         <v>81</v>
@@ -14441,7 +14537,7 @@
         <v>34</v>
       </c>
       <c r="AG125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH125" t="n">
         <v>81</v>
@@ -14450,7 +14546,7 @@
         <v>51</v>
       </c>
       <c r="AJ125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126">
@@ -14607,13 +14703,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H127" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J127" t="n">
         <v>1.07</v>
@@ -14622,10 +14718,10 @@
         <v>8.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N127" t="n">
         <v>2.05</v>
@@ -14640,25 +14736,25 @@
         <v>2.75</v>
       </c>
       <c r="R127" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S127" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T127" t="n">
         <v>6</v>
       </c>
       <c r="U127" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V127" t="n">
         <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y127" t="n">
         <v>34</v>
@@ -14673,17 +14769,17 @@
         <v>21</v>
       </c>
       <c r="AC127" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH127" t="n">
         <v>81</v>
@@ -14692,7 +14788,7 @@
         <v>51</v>
       </c>
       <c r="AJ127" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -14961,13 +15057,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H130" t="n">
         <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J130" t="n">
         <v>1.06</v>
@@ -14976,10 +15072,10 @@
         <v>10</v>
       </c>
       <c r="L130" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M130" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N130" t="n">
         <v>2.05</v>
@@ -15003,7 +15099,7 @@
         <v>9.5</v>
       </c>
       <c r="U130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V130" t="n">
         <v>12</v>
@@ -15012,7 +15108,7 @@
         <v>34</v>
       </c>
       <c r="X130" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y130" t="n">
         <v>34</v>
@@ -15205,13 +15301,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H132" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I132" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J132" t="n">
         <v>1.05</v>
@@ -15226,25 +15322,25 @@
         <v>3.75</v>
       </c>
       <c r="N132" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O132" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R132" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S132" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T132" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U132" t="n">
         <v>7</v>
@@ -15256,7 +15352,7 @@
         <v>10</v>
       </c>
       <c r="X132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y132" t="n">
         <v>29</v>
@@ -15265,7 +15361,7 @@
         <v>11</v>
       </c>
       <c r="AA132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB132" t="n">
         <v>19</v>
@@ -15277,13 +15373,13 @@
         <v>351</v>
       </c>
       <c r="AE132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF132" t="n">
         <v>34</v>
       </c>
       <c r="AG132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH132" t="n">
         <v>67</v>
@@ -15705,7 +15801,7 @@
         <v>1.03</v>
       </c>
       <c r="K136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L136" t="n">
         <v>1.17</v>
@@ -15714,10 +15810,10 @@
         <v>5</v>
       </c>
       <c r="N136" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O136" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P136" t="n">
         <v>1.29</v>
@@ -16690,10 +16786,10 @@
         <v>3.75</v>
       </c>
       <c r="N144" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O144" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P144" t="n">
         <v>1.36</v>
@@ -16791,31 +16887,31 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I145" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J145" t="n">
         <v>1.04</v>
       </c>
       <c r="K145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L145" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M145" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N145" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O145" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P145" t="n">
         <v>1.33</v>
@@ -16830,7 +16926,7 @@
         <v>1.83</v>
       </c>
       <c r="T145" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U145" t="n">
         <v>7.5</v>
@@ -16860,7 +16956,7 @@
         <v>51</v>
       </c>
       <c r="AD145" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE145" t="n">
         <v>15</v>
@@ -16872,7 +16968,7 @@
         <v>17</v>
       </c>
       <c r="AH145" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI145" t="n">
         <v>41</v>
@@ -18086,36 +18182,96 @@
           <t>Napredak</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr"/>
-      <c r="AB164" t="inlineStr"/>
-      <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
-      <c r="AF164" t="inlineStr"/>
-      <c r="AG164" t="inlineStr"/>
-      <c r="AH164" t="inlineStr"/>
-      <c r="AI164" t="inlineStr"/>
-      <c r="AJ164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T164" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U164" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V164" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W164" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X164" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18152,7 +18308,7 @@
         <v>1.42</v>
       </c>
       <c r="H165" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I165" t="n">
         <v>5.9</v>
@@ -18310,7 +18466,7 @@
         <v>1.75</v>
       </c>
       <c r="T166" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U166" t="n">
         <v>6.5</v>
@@ -18325,7 +18481,7 @@
         <v>10.75</v>
       </c>
       <c r="Y166" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z166" t="n">
         <v>9</v>
@@ -18337,7 +18493,7 @@
         <v>23</v>
       </c>
       <c r="AC166" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD166" t="n">
         <v>800</v>
@@ -18511,13 +18667,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H168" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I168" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="J168" t="n">
         <v>1.01</v>
@@ -18526,52 +18682,52 @@
         <v>34</v>
       </c>
       <c r="L168" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O168" t="n">
+        <v>4</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R168" t="n">
         <v>1.29</v>
       </c>
-      <c r="O168" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P168" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>5</v>
-      </c>
-      <c r="R168" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S168" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T168" t="n">
         <v>19</v>
       </c>
       <c r="U168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V168" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W168" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X168" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y168" t="n">
         <v>15</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>17</v>
       </c>
       <c r="Z168" t="n">
         <v>34</v>
       </c>
       <c r="AA168" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB168" t="n">
         <v>12</v>
@@ -18583,19 +18739,19 @@
         <v>51</v>
       </c>
       <c r="AE168" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF168" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI168" t="n">
         <v>21</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>17</v>
       </c>
       <c r="AJ168" t="n">
         <v>17</v>
@@ -18633,43 +18789,55 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H169" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I169" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+        <v>2.9</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K169" t="n">
+        <v>26</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M169" t="n">
+        <v>6.5</v>
+      </c>
       <c r="N169" t="n">
         <v>1.4</v>
       </c>
       <c r="O169" t="n">
         <v>2.88</v>
       </c>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
+      <c r="P169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>4.33</v>
+      </c>
       <c r="R169" t="n">
         <v>1.4</v>
       </c>
       <c r="S169" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="T169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U169" t="n">
         <v>13</v>
       </c>
       <c r="V169" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W169" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X169" t="n">
         <v>13</v>
@@ -18678,37 +18846,37 @@
         <v>17</v>
       </c>
       <c r="Z169" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC169" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD169" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AE169" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF169" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG169" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH169" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
@@ -18742,36 +18910,96 @@
           <t>Z. Moravce-Vrable</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
-      <c r="AA170" t="inlineStr"/>
-      <c r="AB170" t="inlineStr"/>
-      <c r="AC170" t="inlineStr"/>
-      <c r="AD170" t="inlineStr"/>
-      <c r="AE170" t="inlineStr"/>
-      <c r="AF170" t="inlineStr"/>
-      <c r="AG170" t="inlineStr"/>
-      <c r="AH170" t="inlineStr"/>
-      <c r="AI170" t="inlineStr"/>
-      <c r="AJ170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T170" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U170" t="n">
+        <v>8</v>
+      </c>
+      <c r="V170" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W170" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X170" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18805,82 +19033,82 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H171" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K171" t="n">
+        <v>8</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O171" t="n">
+        <v>2</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R171" t="n">
         <v>1.7</v>
       </c>
-      <c r="J171" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K171" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="L171" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M171" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N171" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O171" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P171" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R171" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S171" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="T171" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U171" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V171" t="n">
         <v>14</v>
       </c>
       <c r="W171" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X171" t="n">
         <v>37</v>
       </c>
       <c r="Y171" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z171" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AA171" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC171" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD171" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AE171" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AF171" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG171" t="n">
         <v>8</v>
@@ -18889,10 +19117,10 @@
         <v>14</v>
       </c>
       <c r="AI171" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ171" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -19171,13 +19399,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>3.5</v>
       </c>
       <c r="I174" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J174" t="n">
         <v>1.05</v>
@@ -19204,10 +19432,10 @@
         <v>3</v>
       </c>
       <c r="R174" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S174" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T174" t="n">
         <v>8</v>
@@ -19216,10 +19444,10 @@
         <v>10</v>
       </c>
       <c r="V174" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W174" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X174" t="n">
         <v>15</v>
@@ -19243,13 +19471,13 @@
         <v>201</v>
       </c>
       <c r="AE174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF174" t="n">
         <v>19</v>
       </c>
       <c r="AG174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH174" t="n">
         <v>41</v>
@@ -19424,10 +19652,10 @@
         <v>1.8</v>
       </c>
       <c r="J176" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K176" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L176" t="n">
         <v>1.25</v>
@@ -19436,10 +19664,10 @@
         <v>3.75</v>
       </c>
       <c r="N176" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O176" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P176" t="n">
         <v>1.36</v>
@@ -19802,25 +20030,25 @@
         <v>3.75</v>
       </c>
       <c r="N179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R179" t="n">
         <v>1.8</v>
       </c>
-      <c r="O179" t="n">
-        <v>2</v>
-      </c>
-      <c r="P179" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>3</v>
-      </c>
-      <c r="R179" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S179" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T179" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U179" t="n">
         <v>8</v>
@@ -19835,13 +20063,13 @@
         <v>13</v>
       </c>
       <c r="Y179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB179" t="n">
         <v>17</v>
@@ -19865,7 +20093,7 @@
         <v>51</v>
       </c>
       <c r="AI179" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
@@ -20025,19 +20253,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H181" t="n">
         <v>3.2</v>
       </c>
       <c r="I181" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J181" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K181" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L181" t="n">
         <v>1.25</v>
@@ -20046,10 +20274,10 @@
         <v>3.75</v>
       </c>
       <c r="N181" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O181" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P181" t="n">
         <v>1.36</v>
@@ -20058,16 +20286,16 @@
         <v>3</v>
       </c>
       <c r="R181" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S181" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
       </c>
       <c r="U181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V181" t="n">
         <v>15</v>
@@ -20076,31 +20304,31 @@
         <v>41</v>
       </c>
       <c r="X181" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y181" t="n">
         <v>34</v>
       </c>
-      <c r="Y181" t="n">
-        <v>41</v>
-      </c>
       <c r="Z181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA181" t="n">
         <v>6.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC181" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD181" t="n">
         <v>151</v>
       </c>
       <c r="AE181" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG181" t="n">
         <v>9</v>
@@ -20269,10 +20497,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I183" t="n">
         <v>4.5</v>
@@ -20290,10 +20518,10 @@
         <v>3</v>
       </c>
       <c r="N183" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O183" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -20320,7 +20548,7 @@
         <v>15</v>
       </c>
       <c r="X183" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y183" t="n">
         <v>34</v>
@@ -20338,10 +20566,10 @@
         <v>51</v>
       </c>
       <c r="AD183" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF183" t="n">
         <v>21</v>
@@ -20400,10 +20628,10 @@
         <v>3.7</v>
       </c>
       <c r="J184" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K184" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L184" t="n">
         <v>1.36</v>
@@ -20424,10 +20652,10 @@
         <v>2.63</v>
       </c>
       <c r="R184" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S184" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T184" t="n">
         <v>6.5</v>
@@ -20513,13 +20741,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I185" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J185" t="n">
         <v>1.02</v>
@@ -20528,16 +20756,16 @@
         <v>11</v>
       </c>
       <c r="L185" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M185" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N185" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O185" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P185" t="n">
         <v>1.33</v>
@@ -20561,10 +20789,10 @@
         <v>9</v>
       </c>
       <c r="W185" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y185" t="n">
         <v>29</v>
@@ -20582,16 +20810,16 @@
         <v>67</v>
       </c>
       <c r="AD185" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE185" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF185" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG185" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH185" t="n">
         <v>81</v>
@@ -20644,22 +20872,22 @@
         <v>3.2</v>
       </c>
       <c r="J186" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K186" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M186" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N186" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O186" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P186" t="n">
         <v>1.4</v>
@@ -20879,31 +21107,31 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H188" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I188" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J188" t="n">
         <v>1.05</v>
       </c>
       <c r="K188" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L188" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M188" t="n">
         <v>3</v>
       </c>
       <c r="N188" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O188" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P188" t="n">
         <v>1.44</v>
@@ -20918,16 +21146,16 @@
         <v>1.8</v>
       </c>
       <c r="T188" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U188" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V188" t="n">
         <v>9.5</v>
       </c>
       <c r="W188" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X188" t="n">
         <v>19</v>
@@ -20939,7 +21167,7 @@
         <v>8.5</v>
       </c>
       <c r="AA188" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB188" t="n">
         <v>17</v>
@@ -20960,7 +21188,7 @@
         <v>13</v>
       </c>
       <c r="AH188" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI188" t="n">
         <v>29</v>
@@ -21132,10 +21360,10 @@
         <v>5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K190" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L190" t="n">
         <v>1.33</v>
@@ -21150,16 +21378,16 @@
         <v>1.73</v>
       </c>
       <c r="P190" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R190" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S190" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T190" t="n">
         <v>6</v>
@@ -21177,13 +21405,13 @@
         <v>15</v>
       </c>
       <c r="Y190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z190" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA190" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB190" t="n">
         <v>19</v>
@@ -21195,7 +21423,7 @@
         <v>1000</v>
       </c>
       <c r="AE190" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF190" t="n">
         <v>26</v>
@@ -21254,10 +21482,10 @@
         <v>2.63</v>
       </c>
       <c r="J191" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K191" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L191" t="n">
         <v>1.22</v>
@@ -21284,7 +21512,7 @@
         <v>2.2</v>
       </c>
       <c r="T191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U191" t="n">
         <v>13</v>
@@ -21302,7 +21530,7 @@
         <v>26</v>
       </c>
       <c r="Z191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA191" t="n">
         <v>6.5</v>
@@ -21314,7 +21542,7 @@
         <v>41</v>
       </c>
       <c r="AD191" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE191" t="n">
         <v>11</v>
@@ -21332,7 +21560,7 @@
         <v>21</v>
       </c>
       <c r="AJ191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192">
@@ -21489,13 +21717,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H193" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I193" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J193" t="n">
         <v>1.06</v>
@@ -21528,7 +21756,7 @@
         <v>1.83</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U193" t="n">
         <v>21</v>
@@ -21558,7 +21786,7 @@
         <v>51</v>
       </c>
       <c r="AD193" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE193" t="n">
         <v>7</v>
@@ -21611,13 +21839,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I194" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J194" t="n">
         <v>1.04</v>
@@ -21626,16 +21854,16 @@
         <v>9</v>
       </c>
       <c r="L194" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M194" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N194" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O194" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P194" t="n">
         <v>1.4</v>
@@ -21653,13 +21881,13 @@
         <v>7</v>
       </c>
       <c r="U194" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V194" t="n">
         <v>9</v>
       </c>
       <c r="W194" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X194" t="n">
         <v>15</v>
@@ -21683,19 +21911,19 @@
         <v>600</v>
       </c>
       <c r="AE194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF194" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG194" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH194" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI194" t="n">
         <v>41</v>
-      </c>
-      <c r="AI194" t="n">
-        <v>34</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -21742,10 +21970,10 @@
         <v>2.8</v>
       </c>
       <c r="J195" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L195" t="n">
         <v>1.36</v>
@@ -21790,7 +22018,7 @@
         <v>34</v>
       </c>
       <c r="Z195" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA195" t="n">
         <v>6</v>
@@ -21805,7 +22033,7 @@
         <v>700</v>
       </c>
       <c r="AE195" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF195" t="n">
         <v>13</v>
@@ -21855,31 +22083,31 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I196" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J196" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L196" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M196" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N196" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O196" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -21900,22 +22128,22 @@
         <v>6</v>
       </c>
       <c r="V196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W196" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X196" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y196" t="n">
         <v>34</v>
       </c>
       <c r="Z196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB196" t="n">
         <v>26</v>
@@ -21928,10 +22156,10 @@
         <v>15</v>
       </c>
       <c r="AF196" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG196" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH196" t="n">
         <v>81</v>
@@ -21940,7 +22168,7 @@
         <v>51</v>
       </c>
       <c r="AJ196" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197">
@@ -21984,10 +22212,10 @@
         <v>2.88</v>
       </c>
       <c r="J197" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K197" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
         <v>1.29</v>
@@ -22002,19 +22230,19 @@
         <v>1.88</v>
       </c>
       <c r="P197" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q197" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R197" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S197" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T197" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U197" t="n">
         <v>11</v>
@@ -22032,7 +22260,7 @@
         <v>29</v>
       </c>
       <c r="Z197" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA197" t="n">
         <v>6.5</v>
@@ -22041,13 +22269,13 @@
         <v>15</v>
       </c>
       <c r="AC197" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD197" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE197" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF197" t="n">
         <v>15</v>
@@ -22592,10 +22820,10 @@
         <v>3.75</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L202" t="n">
         <v>1.29</v>
@@ -22717,13 +22945,13 @@
         <v>1.01</v>
       </c>
       <c r="K203" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L203" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N203" t="n">
         <v>1.33</v>
@@ -22836,13 +23064,13 @@
         <v>2.4</v>
       </c>
       <c r="J204" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K204" t="n">
         <v>21</v>
       </c>
       <c r="L204" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M204" t="n">
         <v>6.5</v>
@@ -22949,13 +23177,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>3.9</v>
       </c>
       <c r="I205" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J205" t="n">
         <v>1.02</v>
@@ -22970,10 +23198,10 @@
         <v>6</v>
       </c>
       <c r="N205" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O205" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P205" t="n">
         <v>1.22</v>
@@ -22988,7 +23216,7 @@
         <v>2.63</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U205" t="n">
         <v>13</v>
@@ -23030,7 +23258,7 @@
         <v>12</v>
       </c>
       <c r="AH205" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI205" t="n">
         <v>23</v>
@@ -23220,7 +23448,7 @@
         <v>2.6</v>
       </c>
       <c r="P207" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q207" t="n">
         <v>3.75</v>
@@ -23315,19 +23543,19 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>4.5</v>
       </c>
       <c r="I208" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J208" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L208" t="n">
         <v>1.11</v>
@@ -23342,10 +23570,10 @@
         <v>2.88</v>
       </c>
       <c r="P208" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q208" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R208" t="n">
         <v>1.44</v>
@@ -23354,10 +23582,10 @@
         <v>2.63</v>
       </c>
       <c r="T208" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U208" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V208" t="n">
         <v>13</v>
@@ -23369,13 +23597,13 @@
         <v>26</v>
       </c>
       <c r="Y208" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z208" t="n">
         <v>26</v>
       </c>
-      <c r="Z208" t="n">
-        <v>23</v>
-      </c>
       <c r="AA208" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB208" t="n">
         <v>13</v>
@@ -23384,19 +23612,19 @@
         <v>34</v>
       </c>
       <c r="AD208" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF208" t="n">
         <v>12</v>
-      </c>
-      <c r="AF208" t="n">
-        <v>11</v>
       </c>
       <c r="AG208" t="n">
         <v>9</v>
       </c>
       <c r="AH208" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI208" t="n">
         <v>12</v>
@@ -23437,13 +23665,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H209" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I209" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -23451,7 +23679,7 @@
         <v>1.38</v>
       </c>
       <c r="M209" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N209" t="n">
         <v>2.1</v>
@@ -23466,25 +23694,25 @@
         <v>2.42</v>
       </c>
       <c r="R209" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S209" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T209" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U209" t="n">
         <v>32</v>
       </c>
       <c r="V209" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="W209" t="n">
         <v>120</v>
       </c>
       <c r="X209" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y209" t="n">
         <v>90</v>
@@ -23493,29 +23721,29 @@
         <v>8</v>
       </c>
       <c r="AA209" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB209" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC209" t="n">
         <v>150</v>
       </c>
       <c r="AD209" t="inlineStr"/>
       <c r="AE209" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF209" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AG209" t="n">
         <v>8.75</v>
       </c>
       <c r="AH209" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI209" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ209" t="n">
         <v>40</v>
@@ -23674,18 +23902,18 @@
         <v>1.25</v>
       </c>
       <c r="H211" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I211" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M211" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N211" t="n">
         <v>1.65</v>
@@ -23737,22 +23965,22 @@
       </c>
       <c r="AD211" t="inlineStr"/>
       <c r="AE211" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF211" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG211" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH211" t="n">
         <v>500</v>
       </c>
       <c r="AI211" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ211" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="212">
@@ -23909,67 +24137,67 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H213" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I213" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="J213" t="n">
         <v>1.04</v>
       </c>
       <c r="K213" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M213" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="N213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R213" t="n">
         <v>1.6</v>
       </c>
-      <c r="O213" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P213" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R213" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S213" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T213" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U213" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V213" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="W213" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X213" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y213" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z213" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA213" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB213" t="n">
         <v>12.5</v>
@@ -23978,25 +24206,25 @@
         <v>45</v>
       </c>
       <c r="AD213" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE213" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF213" t="n">
         <v>11.25</v>
       </c>
       <c r="AG213" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH213" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI213" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ213" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
@@ -24510,36 +24738,90 @@
           <t>Colon</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr"/>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="inlineStr"/>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr"/>
-      <c r="Z218" t="inlineStr"/>
-      <c r="AA218" t="inlineStr"/>
-      <c r="AB218" t="inlineStr"/>
-      <c r="AC218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T218" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U218" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V218" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>30</v>
+      </c>
+      <c r="X218" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>120</v>
+      </c>
       <c r="AD218" t="inlineStr"/>
-      <c r="AE218" t="inlineStr"/>
-      <c r="AF218" t="inlineStr"/>
-      <c r="AG218" t="inlineStr"/>
-      <c r="AH218" t="inlineStr"/>
-      <c r="AI218" t="inlineStr"/>
-      <c r="AJ218" t="inlineStr"/>
+      <c r="AE218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -24579,25 +24861,25 @@
         <v>4.75</v>
       </c>
       <c r="I219" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J219" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L219" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M219" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N219" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O219" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P219" t="n">
         <v>1.33</v>
@@ -24606,13 +24888,13 @@
         <v>3.25</v>
       </c>
       <c r="R219" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S219" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T219" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U219" t="n">
         <v>6.5</v>
@@ -24642,7 +24924,7 @@
         <v>67</v>
       </c>
       <c r="AD219" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE219" t="n">
         <v>17</v>
@@ -24695,13 +24977,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I220" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J220" t="n">
         <v>1.03</v>
@@ -24728,28 +25010,28 @@
         <v>3.75</v>
       </c>
       <c r="R220" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S220" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V220" t="n">
         <v>8.5</v>
       </c>
       <c r="W220" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X220" t="n">
         <v>12</v>
       </c>
       <c r="Y220" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z220" t="n">
         <v>17</v>
@@ -24770,7 +25052,7 @@
         <v>17</v>
       </c>
       <c r="AF220" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG220" t="n">
         <v>15</v>
@@ -24779,10 +25061,10 @@
         <v>51</v>
       </c>
       <c r="AI220" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ220" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
@@ -24817,19 +25099,19 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H221" t="n">
         <v>3.5</v>
       </c>
       <c r="I221" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J221" t="n">
         <v>1.04</v>
       </c>
       <c r="K221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L221" t="n">
         <v>1.22</v>
@@ -24856,19 +25138,19 @@
         <v>2.1</v>
       </c>
       <c r="T221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U221" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W221" t="n">
         <v>34</v>
       </c>
       <c r="X221" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y221" t="n">
         <v>29</v>
@@ -24898,10 +25180,10 @@
         <v>9</v>
       </c>
       <c r="AH221" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ221" t="n">
         <v>23</v>
@@ -24939,13 +25221,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H222" t="n">
         <v>3.5</v>
       </c>
       <c r="I222" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J222" t="n">
         <v>1.04</v>
@@ -24987,16 +25269,16 @@
         <v>10</v>
       </c>
       <c r="W222" t="n">
+        <v>29</v>
+      </c>
+      <c r="X222" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y222" t="n">
         <v>26</v>
       </c>
-      <c r="X222" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>23</v>
-      </c>
       <c r="Z222" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA222" t="n">
         <v>7</v>
@@ -25023,7 +25305,7 @@
         <v>23</v>
       </c>
       <c r="AI222" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ222" t="n">
         <v>23</v>
@@ -25183,13 +25465,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H224" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I224" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J224" t="n">
         <v>1.02</v>
@@ -25216,22 +25498,22 @@
         <v>3.75</v>
       </c>
       <c r="R224" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S224" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T224" t="n">
         <v>10</v>
       </c>
       <c r="U224" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V224" t="n">
         <v>8.5</v>
       </c>
       <c r="W224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X224" t="n">
         <v>12</v>
@@ -25255,10 +25537,10 @@
         <v>126</v>
       </c>
       <c r="AE224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG224" t="n">
         <v>15</v>
@@ -25270,7 +25552,7 @@
         <v>34</v>
       </c>
       <c r="AJ224" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
@@ -25686,16 +25968,16 @@
         <v>13</v>
       </c>
       <c r="L228" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M228" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N228" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O228" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P228" t="n">
         <v>1.33</v>
@@ -26159,19 +26441,19 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H232" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I232" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J232" t="n">
         <v>1.07</v>
       </c>
       <c r="K232" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L232" t="n">
         <v>1.34</v>
@@ -26189,13 +26471,13 @@
         <v>1.44</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R232" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S232" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T232" t="n">
         <v>8.25</v>
@@ -26204,7 +26486,7 @@
         <v>13</v>
       </c>
       <c r="V232" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W232" t="n">
         <v>30</v>
@@ -26213,16 +26495,16 @@
         <v>23</v>
       </c>
       <c r="Y232" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z232" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA232" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB232" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC232" t="n">
         <v>70</v>
@@ -26231,19 +26513,19 @@
         <v>600</v>
       </c>
       <c r="AE232" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF232" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG232" t="n">
         <v>9.5</v>
       </c>
       <c r="AH232" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI232" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ232" t="n">
         <v>32</v>
@@ -26401,19 +26683,19 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H234" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I234" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J234" t="n">
         <v>1.05</v>
       </c>
       <c r="K234" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L234" t="n">
         <v>1.27</v>
@@ -26440,55 +26722,55 @@
         <v>2.12</v>
       </c>
       <c r="T234" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U234" t="n">
+        <v>12</v>
+      </c>
+      <c r="V234" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W234" t="n">
+        <v>26</v>
+      </c>
+      <c r="X234" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB234" t="n">
         <v>13</v>
       </c>
-      <c r="V234" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W234" t="n">
-        <v>27</v>
-      </c>
-      <c r="X234" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z234" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA234" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB234" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC234" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD234" t="n">
         <v>350</v>
       </c>
       <c r="AE234" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF234" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG234" t="n">
         <v>9.75</v>
       </c>
       <c r="AH234" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI234" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235">
@@ -26538,16 +26820,16 @@
         <v>7.9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M235" t="n">
         <v>3.6</v>
       </c>
       <c r="N235" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O235" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P235" t="n">
         <v>1.37</v>
@@ -26559,13 +26841,13 @@
         <v>1.6</v>
       </c>
       <c r="S235" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T235" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U235" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V235" t="n">
         <v>10</v>
@@ -26574,10 +26856,10 @@
         <v>32</v>
       </c>
       <c r="X235" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y235" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z235" t="n">
         <v>7.9</v>
@@ -26589,28 +26871,28 @@
         <v>12.5</v>
       </c>
       <c r="AC235" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD235" t="n">
         <v>300</v>
       </c>
       <c r="AE235" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF235" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG235" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH235" t="n">
         <v>25</v>
       </c>
       <c r="AI235" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ235" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236">
@@ -26696,7 +26978,7 @@
         <v>32</v>
       </c>
       <c r="X236" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y236" t="n">
         <v>32</v>
@@ -26726,13 +27008,13 @@
         <v>9.25</v>
       </c>
       <c r="AH236" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI236" t="n">
         <v>20</v>
       </c>
       <c r="AJ236" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237">
@@ -26767,7 +27049,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="H237" t="n">
         <v>3.55</v>
@@ -26785,7 +27067,7 @@
         <v>1.29</v>
       </c>
       <c r="M237" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N237" t="n">
         <v>1.85</v>
@@ -26806,7 +27088,7 @@
         <v>1.87</v>
       </c>
       <c r="T237" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U237" t="n">
         <v>28</v>
@@ -26821,7 +27103,7 @@
         <v>50</v>
       </c>
       <c r="Y237" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z237" t="n">
         <v>7.4</v>
@@ -26833,7 +27115,7 @@
         <v>16</v>
       </c>
       <c r="AC237" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD237" t="n">
         <v>600</v>
@@ -26842,7 +27124,7 @@
         <v>6.8</v>
       </c>
       <c r="AF237" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG237" t="n">
         <v>8</v>
@@ -26889,19 +27171,19 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H238" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I238" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J238" t="n">
         <v>1.07</v>
       </c>
       <c r="K238" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L238" t="n">
         <v>1.33</v>
@@ -26919,7 +27201,7 @@
         <v>1.44</v>
       </c>
       <c r="Q238" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R238" t="n">
         <v>1.78</v>
@@ -26928,46 +27210,46 @@
         <v>1.93</v>
       </c>
       <c r="T238" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U238" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V238" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W238" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X238" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y238" t="n">
         <v>35</v>
       </c>
       <c r="Z238" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA238" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB238" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC238" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD238" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE238" t="n">
         <v>7.7</v>
       </c>
       <c r="AF238" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG238" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH238" t="n">
         <v>22</v>
@@ -26976,7 +27258,7 @@
         <v>18.5</v>
       </c>
       <c r="AJ238" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239">

--- a/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.01</v>
@@ -802,13 +802,13 @@
         <v>4.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
         <v>8.5</v>
@@ -817,7 +817,7 @@
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -838,25 +838,25 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1055,19 +1055,19 @@
         <v>11</v>
       </c>
       <c r="U5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V5" t="n">
         <v>9</v>
       </c>
-      <c r="V5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
@@ -1076,13 +1076,13 @@
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1091,10 +1091,10 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1150,22 +1150,22 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
         <v>2.1</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1650,19 +1650,19 @@
         <v>1.73</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>6.5</v>
@@ -1674,26 +1674,28 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
         <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>501</v>
+      </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>29</v>
@@ -2234,16 +2236,16 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
         <v>3.1</v>
@@ -2594,10 +2596,10 @@
         <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.62</v>
@@ -2606,10 +2608,10 @@
         <v>2.2</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.67</v>
@@ -2720,10 +2722,10 @@
         <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N19" t="n">
         <v>1.73</v>
@@ -3071,7 +3073,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
@@ -3104,43 +3106,43 @@
         <v>3.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T22" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" t="n">
         <v>9.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>9</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
         <v>19</v>
@@ -3437,13 +3439,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>1.02</v>
@@ -3464,16 +3466,16 @@
         <v>3.05</v>
       </c>
       <c r="P25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T25" t="n">
         <v>14.5</v>
@@ -3485,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X25" t="n">
         <v>11.75</v>
@@ -3497,7 +3499,7 @@
         <v>10.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3506,7 +3508,7 @@
         <v>30</v>
       </c>
       <c r="AD25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -3521,10 +3523,10 @@
         <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -3559,27 +3561,27 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.35</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O26" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -3587,58 +3589,58 @@
         <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="U26" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="W26" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="X26" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>65</v>
       </c>
       <c r="AD26" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE26" t="n">
         <v>7.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -3930,10 +3932,10 @@
         <v>5.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
@@ -4052,10 +4054,10 @@
         <v>5.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P30" t="n">
         <v>1.25</v>
@@ -4070,7 +4072,7 @@
         <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U30" t="n">
         <v>10</v>
@@ -4097,10 +4099,10 @@
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
@@ -4162,13 +4164,13 @@
         <v>1.53</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M31" t="n">
         <v>4.5</v>
@@ -4418,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P33" t="n">
         <v>1.44</v>
@@ -4534,16 +4536,16 @@
         <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
         <v>1.44</v>
@@ -4641,46 +4643,46 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U35" t="n">
         <v>7.5</v>
@@ -4698,7 +4700,7 @@
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
@@ -4710,13 +4712,13 @@
         <v>67</v>
       </c>
       <c r="AD35" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -4728,7 +4730,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -4775,7 +4777,7 @@
         <v>1.09</v>
       </c>
       <c r="K36" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.42</v>
@@ -4802,7 +4804,7 @@
         <v>1.65</v>
       </c>
       <c r="T36" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U36" t="n">
         <v>7.4</v>
@@ -4820,7 +4822,7 @@
         <v>37</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA36" t="n">
         <v>6.6</v>
@@ -5005,19 +5007,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H38" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>2.92</v>
       </c>
       <c r="J38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K38" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.52</v>
@@ -5035,7 +5037,7 @@
         <v>1.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
         <v>2.1</v>
@@ -5047,13 +5049,13 @@
         <v>6.3</v>
       </c>
       <c r="U38" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V38" t="n">
         <v>10</v>
       </c>
       <c r="W38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
         <v>25</v>
@@ -5062,20 +5064,20 @@
         <v>45</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC38" t="n">
         <v>120</v>
       </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -6196,9 +6198,15 @@
           <t>Botev Plovdiv II</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -7385,19 +7393,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -7406,10 +7414,10 @@
         <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
@@ -7427,7 +7435,7 @@
         <v>6</v>
       </c>
       <c r="U59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V59" t="n">
         <v>9</v>
@@ -7442,7 +7450,7 @@
         <v>34</v>
       </c>
       <c r="Z59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA59" t="n">
         <v>6.5</v>
@@ -7457,13 +7465,13 @@
         <v>1250</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
         <v>51</v>
@@ -7506,36 +7514,92 @@
           <t>Patriotas</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.6</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>11</v>
+      </c>
+      <c r="V60" t="n">
+        <v>9</v>
+      </c>
+      <c r="W60" t="n">
+        <v>27</v>
+      </c>
+      <c r="X60" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7569,79 +7633,79 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M61" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="N61" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="P61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="R61" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S61" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T61" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="U61" t="n">
         <v>6.4</v>
       </c>
       <c r="V61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X61" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z61" t="n">
         <v>8.75</v>
       </c>
-      <c r="W61" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X61" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>7.3</v>
       </c>
-      <c r="AA61" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB61" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG61" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
         <v>120</v>
@@ -7650,7 +7714,7 @@
         <v>70</v>
       </c>
       <c r="AJ61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -8037,21 +8101,21 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M65" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="N65" t="n">
         <v>2.05</v>
@@ -8060,31 +8124,31 @@
         <v>1.75</v>
       </c>
       <c r="P65" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="R65" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W65" t="n">
+        <v>29</v>
+      </c>
+      <c r="X65" t="n">
         <v>23</v>
-      </c>
-      <c r="X65" t="n">
-        <v>21</v>
       </c>
       <c r="Y65" t="n">
         <v>34</v>
@@ -8102,19 +8166,19 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG65" t="n">
         <v>10</v>
       </c>
       <c r="AH65" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI65" t="n">
         <v>21</v>
@@ -8155,65 +8219,69 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N66" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
-      </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R66" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="S66" t="n">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="T66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V66" t="n">
         <v>9</v>
       </c>
-      <c r="U66" t="n">
-        <v>11</v>
-      </c>
-      <c r="V66" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W66" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X66" t="n">
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD66" t="n">
         <v>151</v>
@@ -8222,19 +8290,19 @@
         <v>11</v>
       </c>
       <c r="AF66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>34</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -8453,13 +8521,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>3.9</v>
       </c>
       <c r="I69" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J69" t="n">
         <v>1.03</v>
@@ -8474,10 +8542,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O69" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P69" t="n">
         <v>1.33</v>
@@ -8486,22 +8554,22 @@
         <v>3.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V69" t="n">
         <v>8.5</v>
       </c>
       <c r="W69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X69" t="n">
         <v>15</v>
@@ -8519,28 +8587,28 @@
         <v>15</v>
       </c>
       <c r="AC69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD69" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE69" t="n">
         <v>12</v>
       </c>
       <c r="AF69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
         <v>41</v>
       </c>
       <c r="AI69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -8819,13 +8887,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
         <v>1.02</v>
@@ -8864,7 +8932,7 @@
         <v>17</v>
       </c>
       <c r="V72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W72" t="n">
         <v>29</v>
@@ -8900,7 +8968,7 @@
         <v>10</v>
       </c>
       <c r="AH72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI72" t="n">
         <v>17</v>
@@ -8956,16 +9024,16 @@
         <v>15</v>
       </c>
       <c r="L73" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M73" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O73" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P73" t="n">
         <v>1.29</v>
@@ -9063,19 +9131,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L74" t="n">
         <v>1.25</v>
@@ -9102,7 +9170,7 @@
         <v>2.2</v>
       </c>
       <c r="T74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U74" t="n">
         <v>13</v>
@@ -9111,10 +9179,10 @@
         <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y74" t="n">
         <v>26</v>
@@ -9147,7 +9215,7 @@
         <v>29</v>
       </c>
       <c r="AI74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ74" t="n">
         <v>29</v>
@@ -9429,94 +9497,94 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I77" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="J77" t="n">
         <v>1.06</v>
       </c>
       <c r="K77" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U77" t="n">
         <v>7.2</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T77" t="n">
-        <v>6</v>
-      </c>
-      <c r="U77" t="n">
-        <v>6.5</v>
       </c>
       <c r="V77" t="n">
         <v>8</v>
       </c>
       <c r="W77" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="X77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z77" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA77" t="n">
         <v>7.2</v>
       </c>
-      <c r="AA77" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB77" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE77" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF77" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG77" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI77" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ77" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
@@ -9804,10 +9872,10 @@
         <v>3.4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
         <v>1.5</v>
@@ -9917,7 +9985,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>3.4</v>
@@ -9926,10 +9994,10 @@
         <v>2.3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L81" t="n">
         <v>1.29</v>
@@ -10060,10 +10128,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O82" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P82" t="n">
         <v>1.25</v>
@@ -10072,10 +10140,10 @@
         <v>3.75</v>
       </c>
       <c r="R82" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S82" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T82" t="n">
         <v>8.5</v>
@@ -10173,7 +10241,7 @@
         <v>1.03</v>
       </c>
       <c r="K83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
         <v>1.17</v>
@@ -10194,10 +10262,10 @@
         <v>3.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S83" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T83" t="n">
         <v>23</v>
@@ -10283,13 +10351,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H84" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -10310,22 +10378,22 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U84" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V84" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="W84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X84" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y84" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z84" t="n">
         <v>9</v>
@@ -10334,7 +10402,7 @@
         <v>5.8</v>
       </c>
       <c r="AB84" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC84" t="n">
         <v>60</v>
@@ -10343,19 +10411,19 @@
         <v>450</v>
       </c>
       <c r="AE84" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG84" t="n">
         <v>7.1</v>
       </c>
-      <c r="AG84" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AH84" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI84" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ84" t="n">
         <v>23</v>
@@ -10711,7 +10779,7 @@
         <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L88" t="n">
         <v>1.13</v>
@@ -10741,7 +10809,7 @@
         <v>19</v>
       </c>
       <c r="U88" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V88" t="n">
         <v>15</v>
@@ -11210,13 +11278,13 @@
         <v>2.1</v>
       </c>
       <c r="P92" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S92" t="n">
         <v>2.32</v>
@@ -11234,10 +11302,10 @@
         <v>37</v>
       </c>
       <c r="X92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z92" t="n">
         <v>8.25</v>
@@ -11264,7 +11332,7 @@
         <v>8.75</v>
       </c>
       <c r="AH92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI92" t="n">
         <v>16</v>
@@ -11423,13 +11491,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -11437,7 +11505,7 @@
         <v>1.19</v>
       </c>
       <c r="M94" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N94" t="n">
         <v>1.6</v>
@@ -11454,25 +11522,25 @@
         <v>2.15</v>
       </c>
       <c r="T94" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V94" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W94" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X94" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y94" t="n">
         <v>29</v>
       </c>
-      <c r="Y94" t="n">
-        <v>30</v>
-      </c>
       <c r="Z94" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA94" t="n">
         <v>7.4</v>
@@ -11487,19 +11555,19 @@
         <v>300</v>
       </c>
       <c r="AE94" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF94" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ94" t="n">
         <v>21</v>
@@ -11537,13 +11605,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H95" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I95" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -11554,45 +11622,45 @@
         <v>3.7</v>
       </c>
       <c r="N95" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O95" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S95" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T95" t="n">
         <v>12</v>
       </c>
       <c r="U95" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V95" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W95" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA95" t="n">
         <v>7.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC95" t="n">
         <v>45</v>
@@ -11601,16 +11669,16 @@
         <v>300</v>
       </c>
       <c r="AE95" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF95" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG95" t="n">
         <v>8.75</v>
       </c>
       <c r="AH95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI95" t="n">
         <v>15</v>
@@ -11651,13 +11719,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H96" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="I96" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -11668,10 +11736,10 @@
         <v>3.7</v>
       </c>
       <c r="N96" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O96" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
@@ -11691,7 +11759,7 @@
         <v>8.25</v>
       </c>
       <c r="W96" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X96" t="n">
         <v>11</v>
@@ -11700,37 +11768,37 @@
         <v>22</v>
       </c>
       <c r="Z96" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA96" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD96" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE96" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF96" t="n">
         <v>37</v>
       </c>
       <c r="AG96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH96" t="n">
         <v>110</v>
       </c>
       <c r="AI96" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -11875,13 +11943,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H98" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J98" t="n">
         <v>1.02</v>
@@ -11890,16 +11958,16 @@
         <v>21</v>
       </c>
       <c r="L98" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M98" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O98" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P98" t="n">
         <v>1.22</v>
@@ -11920,10 +11988,10 @@
         <v>7.5</v>
       </c>
       <c r="V98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X98" t="n">
         <v>10</v>
@@ -11935,7 +12003,7 @@
         <v>21</v>
       </c>
       <c r="AA98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB98" t="n">
         <v>21</v>
@@ -11947,7 +12015,7 @@
         <v>201</v>
       </c>
       <c r="AE98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF98" t="n">
         <v>41</v>
@@ -11962,7 +12030,7 @@
         <v>51</v>
       </c>
       <c r="AJ98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99">
@@ -12054,7 +12122,7 @@
         <v>23</v>
       </c>
       <c r="Z99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA99" t="n">
         <v>10</v>
@@ -12256,16 +12324,16 @@
         <v>9</v>
       </c>
       <c r="L101" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M101" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12363,13 +12431,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J102" t="n">
         <v>1.1</v>
@@ -12390,10 +12458,10 @@
         <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R102" t="n">
         <v>2.1</v>
@@ -12402,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="T102" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U102" t="n">
         <v>12</v>
@@ -12447,7 +12515,7 @@
         <v>29</v>
       </c>
       <c r="AI102" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ102" t="n">
         <v>41</v>
@@ -12604,27 +12672,27 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O104" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P104" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U104" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V104" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W104" t="n">
         <v>32</v>
@@ -12633,40 +12701,40 @@
         <v>22</v>
       </c>
       <c r="Y104" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z104" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC104" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD104" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE104" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AF104" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG104" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ104" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -12701,78 +12769,78 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I105" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="O105" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="U105" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="V105" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="W105" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X105" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y105" t="n">
         <v>28</v>
       </c>
       <c r="Z105" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB105" t="n">
         <v>11.25</v>
       </c>
       <c r="AC105" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD105" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE105" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AF105" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH105" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ105" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="106">
@@ -12810,10 +12878,10 @@
         <v>1.7</v>
       </c>
       <c r="H106" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I106" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -13048,36 +13116,84 @@
           <t>ACV Assen</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.5</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
-      <c r="AH109" t="inlineStr"/>
-      <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T109" t="n">
+        <v>23</v>
+      </c>
+      <c r="U109" t="n">
+        <v>37</v>
+      </c>
+      <c r="V109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>90</v>
+      </c>
+      <c r="X109" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13110,36 +13226,84 @@
           <t>Excelsior Maassluis</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2.45</v>
+      </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T110" t="n">
+        <v>10</v>
+      </c>
+      <c r="U110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W110" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X110" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13172,36 +13336,84 @@
           <t>RKAV Volendam</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2.8</v>
+      </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T111" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U111" t="n">
+        <v>14</v>
+      </c>
+      <c r="V111" t="n">
+        <v>9</v>
+      </c>
+      <c r="W111" t="n">
+        <v>19</v>
+      </c>
+      <c r="X111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13234,36 +13446,88 @@
           <t>Hardenberg</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.77</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T112" t="n">
+        <v>10</v>
+      </c>
+      <c r="U112" t="n">
+        <v>13</v>
+      </c>
+      <c r="V112" t="n">
+        <v>9</v>
+      </c>
+      <c r="W112" t="n">
+        <v>24</v>
+      </c>
+      <c r="X112" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13296,36 +13560,84 @@
           <t>Jong Almere City</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.7</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3.25</v>
+      </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T113" t="n">
+        <v>28</v>
+      </c>
+      <c r="U113" t="n">
+        <v>35</v>
+      </c>
+      <c r="V113" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>60</v>
+      </c>
+      <c r="X113" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13358,36 +13670,84 @@
           <t>De Treffers</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
-      <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U114" t="n">
+        <v>13</v>
+      </c>
+      <c r="V114" t="n">
+        <v>9</v>
+      </c>
+      <c r="W114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X114" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13420,36 +13780,84 @@
           <t>Noordwijk</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.05</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O115" t="n">
+        <v>2.92</v>
+      </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr"/>
-      <c r="AH115" t="inlineStr"/>
-      <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T115" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>9</v>
+      </c>
+      <c r="W115" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13482,36 +13890,84 @@
           <t>Quick Boys</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.18</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O116" t="n">
+        <v>3.1</v>
+      </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="inlineStr"/>
-      <c r="AH116" t="inlineStr"/>
-      <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T116" t="n">
+        <v>65</v>
+      </c>
+      <c r="U116" t="n">
+        <v>175</v>
+      </c>
+      <c r="V116" t="n">
+        <v>45</v>
+      </c>
+      <c r="W116" t="n">
+        <v>700</v>
+      </c>
+      <c r="X116" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13544,36 +14000,84 @@
           <t>GVVV</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O117" t="n">
+        <v>2.95</v>
+      </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr"/>
-      <c r="AH117" t="inlineStr"/>
-      <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="T117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U117" t="n">
+        <v>14</v>
+      </c>
+      <c r="V117" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W117" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X117" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13607,13 +14111,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H118" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J118" t="n">
         <v>1.07</v>
@@ -13634,10 +14138,10 @@
         <v>1.62</v>
       </c>
       <c r="P118" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R118" t="n">
         <v>1.95</v>
@@ -13649,16 +14153,16 @@
         <v>8</v>
       </c>
       <c r="U118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W118" t="n">
+        <v>34</v>
+      </c>
+      <c r="X118" t="n">
         <v>29</v>
-      </c>
-      <c r="X118" t="n">
-        <v>26</v>
       </c>
       <c r="Y118" t="n">
         <v>41</v>
@@ -13676,19 +14180,19 @@
         <v>51</v>
       </c>
       <c r="AD118" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE118" t="n">
         <v>7</v>
       </c>
       <c r="AF118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI118" t="n">
         <v>21</v>
@@ -13973,49 +14477,49 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H121" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J121" t="n">
         <v>1.03</v>
       </c>
       <c r="K121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L121" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M121" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O121" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q121" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R121" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S121" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V121" t="n">
         <v>8.5</v>
@@ -14030,10 +14534,10 @@
         <v>21</v>
       </c>
       <c r="Z121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB121" t="n">
         <v>13</v>
@@ -14042,7 +14546,7 @@
         <v>41</v>
       </c>
       <c r="AD121" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE121" t="n">
         <v>17</v>
@@ -14104,16 +14608,16 @@
         <v>1.2</v>
       </c>
       <c r="J122" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L122" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M122" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N122" t="n">
         <v>1.53</v>
@@ -14226,10 +14730,10 @@
         <v>4.5</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L123" t="n">
         <v>1.22</v>
@@ -15057,25 +15561,25 @@
         </is>
       </c>
       <c r="G130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.25</v>
       </c>
-      <c r="H130" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I130" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J130" t="n">
         <v>1.06</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M130" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N130" t="n">
         <v>2.05</v>
@@ -15090,34 +15594,34 @@
         <v>2.75</v>
       </c>
       <c r="R130" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S130" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T130" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U130" t="n">
         <v>15</v>
       </c>
       <c r="V130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y130" t="n">
         <v>34</v>
       </c>
       <c r="Z130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB130" t="n">
         <v>15</v>
@@ -15129,16 +15633,16 @@
         <v>251</v>
       </c>
       <c r="AE130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG130" t="n">
         <v>9.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI130" t="n">
         <v>19</v>
@@ -15179,88 +15683,88 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H131" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I131" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J131" t="n">
         <v>1.04</v>
       </c>
       <c r="K131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L131" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M131" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N131" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O131" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q131" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R131" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S131" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U131" t="n">
         <v>6</v>
       </c>
-      <c r="U131" t="n">
-        <v>6.5</v>
-      </c>
       <c r="V131" t="n">
+        <v>9</v>
+      </c>
+      <c r="W131" t="n">
         <v>8.5</v>
       </c>
-      <c r="W131" t="n">
-        <v>9</v>
-      </c>
       <c r="X131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y131" t="n">
         <v>29</v>
       </c>
       <c r="Z131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB131" t="n">
         <v>23</v>
       </c>
       <c r="AC131" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD131" t="n">
         <v>351</v>
       </c>
       <c r="AE131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH131" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI131" t="n">
         <v>51</v>
@@ -15667,13 +16171,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>5</v>
       </c>
       <c r="I135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J135" t="n">
         <v>1.03</v>
@@ -15706,7 +16210,7 @@
         <v>1.91</v>
       </c>
       <c r="T135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U135" t="n">
         <v>7</v>
@@ -15721,7 +16225,7 @@
         <v>11</v>
       </c>
       <c r="Y135" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z135" t="n">
         <v>15</v>
@@ -15739,13 +16243,13 @@
         <v>301</v>
       </c>
       <c r="AE135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH135" t="n">
         <v>81</v>
@@ -15754,7 +16258,7 @@
         <v>51</v>
       </c>
       <c r="AJ135" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136">
@@ -16054,10 +16558,10 @@
         <v>4.33</v>
       </c>
       <c r="N138" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O138" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P138" t="n">
         <v>1.3</v>
@@ -16530,22 +17034,22 @@
         <v>2.75</v>
       </c>
       <c r="J142" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L142" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M142" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N142" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O142" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P142" t="n">
         <v>1.44</v>
@@ -16554,13 +17058,13 @@
         <v>2.63</v>
       </c>
       <c r="R142" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U142" t="n">
         <v>11</v>
@@ -16578,19 +17082,19 @@
         <v>34</v>
       </c>
       <c r="Z142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA142" t="n">
         <v>6</v>
       </c>
       <c r="AB142" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC142" t="n">
         <v>51</v>
       </c>
       <c r="AD142" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE142" t="n">
         <v>8</v>
@@ -16605,10 +17109,10 @@
         <v>29</v>
       </c>
       <c r="AI142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ142" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143">
@@ -18308,7 +18812,7 @@
         <v>1.42</v>
       </c>
       <c r="H165" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I165" t="n">
         <v>5.9</v>
@@ -18320,46 +18824,46 @@
         <v>9</v>
       </c>
       <c r="L165" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M165" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="N165" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O165" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="P165" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q165" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R165" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S165" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T165" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U165" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="V165" t="n">
         <v>8.25</v>
       </c>
       <c r="W165" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X165" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z165" t="n">
         <v>9</v>
@@ -18368,16 +18872,16 @@
         <v>9</v>
       </c>
       <c r="AB165" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC165" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD165" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE165" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF165" t="n">
         <v>40</v>
@@ -18392,7 +18896,7 @@
         <v>60</v>
       </c>
       <c r="AJ165" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
@@ -18466,7 +18970,7 @@
         <v>1.75</v>
       </c>
       <c r="T166" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U166" t="n">
         <v>6.5</v>
@@ -18481,7 +18985,7 @@
         <v>10.75</v>
       </c>
       <c r="Y166" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z166" t="n">
         <v>9</v>
@@ -18493,7 +18997,7 @@
         <v>23</v>
       </c>
       <c r="AC166" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD166" t="n">
         <v>800</v>
@@ -18911,94 +19415,94 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H170" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I170" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J170" t="n">
         <v>1.05</v>
       </c>
       <c r="K170" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L170" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M170" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N170" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O170" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P170" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="R170" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S170" t="n">
         <v>1.88</v>
       </c>
       <c r="T170" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U170" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V170" t="n">
         <v>8.75</v>
       </c>
       <c r="W170" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X170" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y170" t="n">
         <v>28</v>
       </c>
       <c r="Z170" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA170" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA170" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB170" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC170" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD170" t="n">
         <v>700</v>
       </c>
       <c r="AE170" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF170" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG170" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH170" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI170" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ170" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
@@ -19155,19 +19659,19 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>3.6</v>
       </c>
       <c r="I172" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J172" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L172" t="n">
         <v>1.33</v>
@@ -19197,13 +19701,13 @@
         <v>6</v>
       </c>
       <c r="U172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V172" t="n">
         <v>8.5</v>
       </c>
       <c r="W172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X172" t="n">
         <v>15</v>
@@ -19652,10 +20156,10 @@
         <v>1.8</v>
       </c>
       <c r="J176" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K176" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L176" t="n">
         <v>1.25</v>
@@ -19664,10 +20168,10 @@
         <v>3.75</v>
       </c>
       <c r="N176" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O176" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P176" t="n">
         <v>1.36</v>
@@ -19786,10 +20290,10 @@
         <v>3.75</v>
       </c>
       <c r="N177" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O177" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P177" t="n">
         <v>1.36</v>
@@ -20253,13 +20757,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I181" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J181" t="n">
         <v>1.02</v>
@@ -20295,7 +20799,7 @@
         <v>13</v>
       </c>
       <c r="U181" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V181" t="n">
         <v>15</v>
@@ -20304,19 +20808,19 @@
         <v>41</v>
       </c>
       <c r="X181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y181" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z181" t="n">
         <v>11</v>
       </c>
       <c r="AA181" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB181" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC181" t="n">
         <v>41</v>
@@ -20328,7 +20832,7 @@
         <v>8</v>
       </c>
       <c r="AF181" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG181" t="n">
         <v>9</v>
@@ -20872,10 +21376,10 @@
         <v>3.2</v>
       </c>
       <c r="J186" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L186" t="n">
         <v>1.3</v>
@@ -20884,10 +21388,10 @@
         <v>3.4</v>
       </c>
       <c r="N186" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O186" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P186" t="n">
         <v>1.4</v>
@@ -20896,10 +21400,10 @@
         <v>2.75</v>
       </c>
       <c r="R186" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S186" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T186" t="n">
         <v>7.5</v>
@@ -20950,7 +21454,7 @@
         <v>29</v>
       </c>
       <c r="AJ186" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
@@ -20985,46 +21489,46 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I187" t="n">
         <v>2.38</v>
       </c>
       <c r="J187" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K187" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L187" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M187" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N187" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O187" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P187" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R187" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S187" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T187" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U187" t="n">
         <v>13</v>
@@ -21033,7 +21537,7 @@
         <v>11</v>
       </c>
       <c r="W187" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X187" t="n">
         <v>23</v>
@@ -21042,13 +21546,13 @@
         <v>34</v>
       </c>
       <c r="Z187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA187" t="n">
         <v>6.5</v>
       </c>
       <c r="AB187" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC187" t="n">
         <v>51</v>
@@ -21057,10 +21561,10 @@
         <v>500</v>
       </c>
       <c r="AE187" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG187" t="n">
         <v>10</v>
@@ -21072,7 +21576,7 @@
         <v>21</v>
       </c>
       <c r="AJ187" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
@@ -21116,13 +21620,13 @@
         <v>3.2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K188" t="n">
         <v>7.5</v>
       </c>
       <c r="L188" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M188" t="n">
         <v>3</v>
@@ -21360,10 +21864,10 @@
         <v>5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L190" t="n">
         <v>1.33</v>
@@ -21482,10 +21986,10 @@
         <v>2.63</v>
       </c>
       <c r="J191" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K191" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L191" t="n">
         <v>1.22</v>
@@ -22212,10 +22716,10 @@
         <v>2.88</v>
       </c>
       <c r="J197" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K197" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L197" t="n">
         <v>1.29</v>
@@ -22224,10 +22728,10 @@
         <v>3.5</v>
       </c>
       <c r="N197" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O197" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P197" t="n">
         <v>1.36</v>
@@ -22272,7 +22776,7 @@
         <v>41</v>
       </c>
       <c r="AD197" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE197" t="n">
         <v>10</v>
@@ -22811,19 +23315,19 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H202" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I202" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J202" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L202" t="n">
         <v>1.29</v>
@@ -22853,16 +23357,16 @@
         <v>7.5</v>
       </c>
       <c r="U202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V202" t="n">
         <v>9</v>
-      </c>
-      <c r="V202" t="n">
-        <v>8.5</v>
       </c>
       <c r="W202" t="n">
         <v>17</v>
       </c>
       <c r="X202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y202" t="n">
         <v>26</v>
@@ -22895,10 +23399,10 @@
         <v>41</v>
       </c>
       <c r="AI202" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ202" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="203">
@@ -22933,19 +23437,19 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>4.33</v>
       </c>
       <c r="I203" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J203" t="n">
         <v>1.01</v>
       </c>
       <c r="K203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L203" t="n">
         <v>1.08</v>
@@ -22954,10 +23458,10 @@
         <v>8</v>
       </c>
       <c r="N203" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O203" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P203" t="n">
         <v>1.18</v>
@@ -22966,13 +23470,13 @@
         <v>4.5</v>
       </c>
       <c r="R203" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S203" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U203" t="n">
         <v>15</v>
@@ -22981,13 +23485,13 @@
         <v>9.5</v>
       </c>
       <c r="W203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X203" t="n">
         <v>13</v>
       </c>
       <c r="Y203" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z203" t="n">
         <v>29</v>
@@ -22996,7 +23500,7 @@
         <v>10</v>
       </c>
       <c r="AB203" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC203" t="n">
         <v>26</v>
@@ -23008,7 +23512,7 @@
         <v>21</v>
       </c>
       <c r="AF203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG203" t="n">
         <v>13</v>
@@ -23017,7 +23521,7 @@
         <v>41</v>
       </c>
       <c r="AI203" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ203" t="n">
         <v>21</v>
@@ -23064,13 +23568,13 @@
         <v>2.4</v>
       </c>
       <c r="J204" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K204" t="n">
         <v>21</v>
       </c>
       <c r="L204" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M204" t="n">
         <v>6.5</v>
@@ -23320,10 +23824,10 @@
         <v>4</v>
       </c>
       <c r="N206" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O206" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P206" t="n">
         <v>1.33</v>
@@ -23442,13 +23946,13 @@
         <v>5.5</v>
       </c>
       <c r="N207" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O207" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P207" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q207" t="n">
         <v>3.75</v>
@@ -23543,13 +24047,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H208" t="n">
         <v>4.5</v>
       </c>
       <c r="I208" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J208" t="n">
         <v>1.01</v>
@@ -23558,16 +24062,16 @@
         <v>23</v>
       </c>
       <c r="L208" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M208" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N208" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O208" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P208" t="n">
         <v>1.2</v>
@@ -23624,7 +24128,7 @@
         <v>9</v>
       </c>
       <c r="AH208" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI208" t="n">
         <v>12</v>
@@ -23668,7 +24172,7 @@
         <v>5.9</v>
       </c>
       <c r="H209" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I209" t="n">
         <v>1.53</v>
@@ -23676,16 +24180,16 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M209" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N209" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O209" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P209" t="n">
         <v>1.44</v>
@@ -23694,10 +24198,10 @@
         <v>2.42</v>
       </c>
       <c r="R209" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S209" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T209" t="n">
         <v>12</v>
@@ -23706,7 +24210,7 @@
         <v>32</v>
       </c>
       <c r="V209" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W209" t="n">
         <v>120</v>
@@ -23721,26 +24225,26 @@
         <v>8</v>
       </c>
       <c r="AA209" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB209" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC209" t="n">
         <v>150</v>
       </c>
       <c r="AD209" t="inlineStr"/>
       <c r="AE209" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF209" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG209" t="n">
         <v>8.75</v>
       </c>
       <c r="AH209" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI209" t="n">
         <v>14.5</v>
@@ -24137,31 +24641,31 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H213" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I213" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J213" t="n">
         <v>1.04</v>
       </c>
       <c r="K213" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L213" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M213" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="N213" t="n">
         <v>1.65</v>
       </c>
       <c r="O213" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P213" t="n">
         <v>1.33</v>
@@ -24170,10 +24674,10 @@
         <v>3.05</v>
       </c>
       <c r="R213" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S213" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T213" t="n">
         <v>12</v>
@@ -24188,37 +24692,37 @@
         <v>40</v>
       </c>
       <c r="X213" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y213" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z213" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA213" t="n">
         <v>7.1</v>
       </c>
       <c r="AB213" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC213" t="n">
         <v>45</v>
       </c>
       <c r="AD213" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE213" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF213" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG213" t="n">
         <v>8.75</v>
       </c>
       <c r="AH213" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI213" t="n">
         <v>15.5</v>
@@ -24739,33 +25243,33 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="H218" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I218" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M218" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N218" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O218" t="n">
         <v>1.4</v>
       </c>
       <c r="P218" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R218" t="n">
         <v>2.05</v>
@@ -24774,28 +25278,28 @@
         <v>1.6</v>
       </c>
       <c r="T218" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="U218" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V218" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W218" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X218" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y218" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z218" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA218" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB218" t="n">
         <v>18</v>
@@ -24805,19 +25309,19 @@
       </c>
       <c r="AD218" t="inlineStr"/>
       <c r="AE218" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF218" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG218" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH218" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI218" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ218" t="n">
         <v>55</v>
@@ -24876,10 +25380,10 @@
         <v>4</v>
       </c>
       <c r="N219" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O219" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P219" t="n">
         <v>1.33</v>
@@ -25221,19 +25725,19 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H222" t="n">
         <v>3.5</v>
       </c>
       <c r="I222" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J222" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K222" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L222" t="n">
         <v>1.2</v>
@@ -25260,13 +25764,13 @@
         <v>2.25</v>
       </c>
       <c r="T222" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U222" t="n">
         <v>15</v>
       </c>
       <c r="V222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W222" t="n">
         <v>29</v>
@@ -25293,7 +25797,7 @@
         <v>126</v>
       </c>
       <c r="AE222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF222" t="n">
         <v>13</v>
@@ -26683,19 +27187,19 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="H234" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I234" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="J234" t="n">
         <v>1.05</v>
       </c>
       <c r="K234" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L234" t="n">
         <v>1.27</v>
@@ -26722,52 +27226,52 @@
         <v>2.12</v>
       </c>
       <c r="T234" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="U234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V234" t="n">
         <v>9.5</v>
       </c>
       <c r="W234" t="n">
+        <v>30</v>
+      </c>
+      <c r="X234" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y234" t="n">
         <v>26</v>
       </c>
-      <c r="X234" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>27</v>
-      </c>
       <c r="Z234" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA234" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB234" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC234" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD234" t="n">
         <v>350</v>
       </c>
       <c r="AE234" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF234" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG234" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH234" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI234" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ234" t="n">
         <v>27</v>
@@ -26820,28 +27324,28 @@
         <v>7.9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M235" t="n">
         <v>3.6</v>
       </c>
       <c r="N235" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O235" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P235" t="n">
         <v>1.37</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R235" t="n">
         <v>1.6</v>
       </c>
       <c r="S235" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T235" t="n">
         <v>10.5</v>
@@ -26927,13 +27431,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H236" t="n">
         <v>3.1</v>
       </c>
       <c r="I236" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="J236" t="n">
         <v>1.07</v>
@@ -26969,19 +27473,19 @@
         <v>8.5</v>
       </c>
       <c r="U236" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V236" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X236" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z236" t="n">
         <v>6.9</v>
@@ -26999,22 +27503,22 @@
         <v>500</v>
       </c>
       <c r="AE236" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF236" t="n">
         <v>12.5</v>
       </c>
       <c r="AG236" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH236" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI236" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ236" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -27067,7 +27571,7 @@
         <v>1.29</v>
       </c>
       <c r="M237" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N237" t="n">
         <v>1.85</v>
@@ -27076,10 +27580,10 @@
         <v>1.85</v>
       </c>
       <c r="P237" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R237" t="n">
         <v>1.83</v>
@@ -27088,7 +27592,7 @@
         <v>1.87</v>
       </c>
       <c r="T237" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U237" t="n">
         <v>28</v>
@@ -27103,28 +27607,28 @@
         <v>50</v>
       </c>
       <c r="Y237" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z237" t="n">
         <v>7.4</v>
       </c>
       <c r="AA237" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB237" t="n">
         <v>16</v>
       </c>
       <c r="AC237" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD237" t="n">
         <v>600</v>
       </c>
       <c r="AE237" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF237" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG237" t="n">
         <v>8</v>
@@ -27133,7 +27637,7 @@
         <v>12.5</v>
       </c>
       <c r="AI237" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ237" t="n">
         <v>26</v>
@@ -27174,10 +27678,10 @@
         <v>2.92</v>
       </c>
       <c r="H238" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J238" t="n">
         <v>1.07</v>
@@ -27186,10 +27690,10 @@
         <v>7</v>
       </c>
       <c r="L238" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M238" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N238" t="n">
         <v>1.95</v>
@@ -27204,16 +27708,16 @@
         <v>2.6</v>
       </c>
       <c r="R238" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S238" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T238" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U238" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V238" t="n">
         <v>10.75</v>
@@ -27243,10 +27747,10 @@
         <v>500</v>
       </c>
       <c r="AE238" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF238" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG238" t="n">
         <v>9</v>
@@ -27255,7 +27759,7 @@
         <v>22</v>
       </c>
       <c r="AI238" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ238" t="n">
         <v>29</v>
@@ -27293,10 +27797,10 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I239" t="n">
         <v>2.32</v>
@@ -27320,7 +27824,7 @@
         <v>1.85</v>
       </c>
       <c r="P239" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q239" t="n">
         <v>2.75</v>
@@ -27329,22 +27833,22 @@
         <v>1.72</v>
       </c>
       <c r="S239" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T239" t="n">
         <v>9</v>
       </c>
       <c r="U239" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V239" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W239" t="n">
         <v>30</v>
       </c>
       <c r="X239" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y239" t="n">
         <v>30</v>
@@ -27353,7 +27857,7 @@
         <v>7.5</v>
       </c>
       <c r="AA239" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB239" t="n">
         <v>14</v>
@@ -27377,7 +27881,7 @@
         <v>24</v>
       </c>
       <c r="AI239" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ239" t="n">
         <v>28</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>3.5</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
@@ -930,13 +930,13 @@
         <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
         <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
         <v>17</v>
@@ -945,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -960,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1028,10 +1028,10 @@
         <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>1.44</v>
@@ -1263,7 +1263,7 @@
         <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
         <v>1.08</v>
@@ -1451,16 +1451,16 @@
         <v>401</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10</v>
       </c>
-      <c r="AG8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
@@ -1528,31 +1528,31 @@
         <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W9" t="n">
+        <v>51</v>
+      </c>
+      <c r="X9" t="n">
         <v>41</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1564,19 +1564,19 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE9" t="n">
         <v>6.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.06</v>
@@ -1650,22 +1650,22 @@
         <v>1.73</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1674,22 +1674,22 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
         <v>501</v>
@@ -1698,13 +1698,13 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="n">
         <v>51</v>
@@ -2116,10 +2116,10 @@
         <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2128,10 +2128,10 @@
         <v>2.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
         <v>1.62</v>
@@ -2596,13 +2596,13 @@
         <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
         <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M18" t="n">
         <v>2.2</v>
@@ -2838,10 +2838,10 @@
         <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
         <v>1.2</v>
@@ -2850,10 +2850,10 @@
         <v>4.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P20" t="n">
         <v>1.29</v>
@@ -3216,10 +3216,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3317,82 +3317,82 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="N24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V24" t="n">
         <v>8.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>8.5</v>
       </c>
       <c r="W24" t="n">
         <v>17</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA24" t="n">
         <v>7.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3401,7 +3401,7 @@
         <v>50</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>32</v>
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>4.75</v>
@@ -3801,19 +3801,19 @@
         <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P28" t="n">
         <v>1.29</v>
@@ -3828,10 +3828,10 @@
         <v>2.2</v>
       </c>
       <c r="T28" t="n">
+        <v>9</v>
+      </c>
+      <c r="U28" t="n">
         <v>9.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3846,13 +3846,13 @@
         <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>8</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
@@ -3864,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -3911,13 +3911,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
@@ -3926,16 +3926,16 @@
         <v>19</v>
       </c>
       <c r="L29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
@@ -3959,10 +3959,10 @@
         <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>23</v>
@@ -3992,10 +3992,10 @@
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -4054,10 +4054,10 @@
         <v>5.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P30" t="n">
         <v>1.25</v>
@@ -4164,13 +4164,13 @@
         <v>1.53</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M31" t="n">
         <v>4.5</v>
@@ -4286,10 +4286,10 @@
         <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
         <v>1.14</v>
@@ -4408,13 +4408,13 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -4646,7 +4646,7 @@
         <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
         <v>4.5</v>
@@ -4715,7 +4715,7 @@
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
         <v>21</v>
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>4.3</v>
+        <v>4.85</v>
       </c>
       <c r="J36" t="n">
         <v>1.09</v>
@@ -4795,28 +4795,28 @@
         <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T36" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U36" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="V36" t="n">
         <v>8.75</v>
       </c>
       <c r="W36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
         <v>37</v>
@@ -4825,10 +4825,10 @@
         <v>6.3</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
         <v>120</v>
@@ -4837,22 +4837,22 @@
         <v>700</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5142,13 +5142,13 @@
         <v>6.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N39" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O39" t="n">
         <v>1.57</v>
@@ -5160,10 +5160,10 @@
         <v>2.37</v>
       </c>
       <c r="R39" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T39" t="n">
         <v>5.5</v>
@@ -5181,7 +5181,7 @@
         <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="n">
         <v>6.2</v>
@@ -5212,7 +5212,7 @@
         <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -6093,13 +6093,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I48" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6116,52 +6116,52 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="U48" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
         <v>11.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD48" t="n">
         <v>250</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI48" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ48" t="n">
         <v>19</v>
@@ -6300,7 +6300,7 @@
         <v>2.57</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
         <v>2.62</v>
@@ -6309,7 +6309,7 @@
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.3</v>
@@ -6327,40 +6327,40 @@
         <v>1.42</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R50" t="n">
         <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T50" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U50" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V50" t="n">
         <v>10.25</v>
       </c>
       <c r="W50" t="n">
+        <v>30</v>
+      </c>
+      <c r="X50" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y50" t="n">
         <v>32</v>
       </c>
-      <c r="X50" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>30</v>
-      </c>
       <c r="Z50" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC50" t="n">
         <v>65</v>
@@ -6369,10 +6369,10 @@
         <v>500</v>
       </c>
       <c r="AE50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG50" t="n">
         <v>10.25</v>
@@ -6381,7 +6381,7 @@
         <v>32</v>
       </c>
       <c r="AI50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
         <v>32</v>
@@ -6431,64 +6431,64 @@
         <v>1.06</v>
       </c>
       <c r="K51" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M51" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="N51" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P51" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S51" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T51" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U51" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V51" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W51" t="n">
         <v>32</v>
       </c>
       <c r="X51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y51" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD51" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE51" t="n">
         <v>8.75</v>
@@ -6503,10 +6503,10 @@
         <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -6913,43 +6913,43 @@
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P55" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R55" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S55" t="n">
         <v>1.7</v>
       </c>
       <c r="T55" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U55" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V55" t="n">
         <v>9</v>
@@ -6964,7 +6964,7 @@
         <v>37</v>
       </c>
       <c r="Z55" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA55" t="n">
         <v>7.6</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF55" t="n">
         <v>32</v>
@@ -7271,10 +7271,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7432,16 +7432,16 @@
         <v>1.67</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V59" t="n">
         <v>9</v>
       </c>
       <c r="W59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X59" t="n">
         <v>17</v>
@@ -7468,10 +7468,10 @@
         <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH59" t="n">
         <v>51</v>
@@ -7515,66 +7515,66 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="I60" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P60" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S60" t="n">
         <v>1.8</v>
       </c>
       <c r="T60" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U60" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W60" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="X60" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC60" t="n">
         <v>75</v>
@@ -7583,22 +7583,22 @@
         <v>700</v>
       </c>
       <c r="AE60" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF60" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -7633,39 +7633,39 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
         <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M61" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R61" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S61" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T61" t="n">
         <v>5.5</v>
@@ -7680,19 +7680,19 @@
         <v>10.75</v>
       </c>
       <c r="X61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y61" t="n">
         <v>35</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC61" t="n">
         <v>120</v>
@@ -7702,7 +7702,7 @@
         <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="n">
         <v>19</v>
@@ -7755,13 +7755,13 @@
         <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J62" t="n">
         <v>1.06</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L62" t="n">
         <v>1.3</v>
@@ -7782,13 +7782,13 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U62" t="n">
         <v>12</v>
@@ -7809,22 +7809,22 @@
         <v>9.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
         <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG62" t="n">
         <v>11</v>
@@ -8101,42 +8101,42 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M65" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="N65" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P65" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R65" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U65" t="n">
         <v>13</v>
@@ -8148,31 +8148,31 @@
         <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA65" t="n">
         <v>7</v>
       </c>
       <c r="AB65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD65" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG65" t="n">
         <v>10</v>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H69" t="n">
         <v>3.9</v>
@@ -8664,10 +8664,10 @@
         <v>5.5</v>
       </c>
       <c r="N70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O70" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P70" t="n">
         <v>1.25</v>
@@ -8887,13 +8887,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J72" t="n">
         <v>1.02</v>
@@ -9152,10 +9152,10 @@
         <v>3.75</v>
       </c>
       <c r="N74" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O74" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P74" t="n">
         <v>1.36</v>
@@ -9497,94 +9497,94 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="L77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M77" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="N77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R77" t="n">
         <v>1.85</v>
       </c>
-      <c r="O77" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S77" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T77" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U77" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V77" t="n">
         <v>8</v>
       </c>
       <c r="W77" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y77" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z77" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AB77" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE77" t="n">
         <v>17</v>
       </c>
-      <c r="AC77" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>14</v>
-      </c>
       <c r="AF77" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI77" t="n">
         <v>60</v>
       </c>
       <c r="AJ77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -9619,37 +9619,37 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H78" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I78" t="n">
         <v>3.2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P78" t="n">
         <v>1.5</v>
       </c>
-      <c r="M78" t="n">
+      <c r="Q78" t="n">
         <v>2.42</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.37</v>
       </c>
       <c r="R78" t="n">
         <v>1.95</v>
@@ -9658,7 +9658,7 @@
         <v>1.75</v>
       </c>
       <c r="T78" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U78" t="n">
         <v>11</v>
@@ -9667,7 +9667,7 @@
         <v>9.5</v>
       </c>
       <c r="W78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X78" t="n">
         <v>24</v>
@@ -9676,10 +9676,10 @@
         <v>40</v>
       </c>
       <c r="Z78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB78" t="n">
         <v>15.5</v>
@@ -9691,19 +9691,19 @@
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG78" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH78" t="n">
         <v>45</v>
       </c>
       <c r="AI78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ78" t="n">
         <v>45</v>
@@ -9994,10 +9994,10 @@
         <v>2.3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L81" t="n">
         <v>1.29</v>
@@ -10140,10 +10140,10 @@
         <v>3.75</v>
       </c>
       <c r="R82" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S82" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T82" t="n">
         <v>8.5</v>
@@ -10235,7 +10235,7 @@
         <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
@@ -10351,13 +10351,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I84" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -10370,39 +10370,39 @@
         <v>1.7</v>
       </c>
       <c r="P84" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V84" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="W84" t="n">
         <v>50</v>
       </c>
       <c r="X84" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y84" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z84" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA84" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB84" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC84" t="n">
         <v>60</v>
@@ -10417,16 +10417,16 @@
         <v>6.8</v>
       </c>
       <c r="AG84" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH84" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI84" t="n">
         <v>11.75</v>
       </c>
-      <c r="AI84" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -10460,36 +10460,84 @@
           <t>Torpedo Kutaisi</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.4</v>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
+      <c r="T85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10535,7 +10583,7 @@
         <v>1.03</v>
       </c>
       <c r="K86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86" t="n">
         <v>1.17</v>
@@ -10544,10 +10592,10 @@
         <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O86" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P86" t="n">
         <v>1.29</v>
@@ -10648,46 +10696,46 @@
         <v>2.45</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J87" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K87" t="n">
+        <v>11</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U87" t="n">
         <v>12</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>3</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S87" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T87" t="n">
-        <v>9</v>
-      </c>
-      <c r="U87" t="n">
-        <v>13</v>
       </c>
       <c r="V87" t="n">
         <v>10</v>
@@ -10696,28 +10744,28 @@
         <v>23</v>
       </c>
       <c r="X87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD87" t="n">
         <v>201</v>
       </c>
       <c r="AE87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF87" t="n">
         <v>13</v>
@@ -10732,7 +10780,7 @@
         <v>21</v>
       </c>
       <c r="AJ87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -10779,7 +10827,7 @@
         <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L88" t="n">
         <v>1.13</v>
@@ -10788,10 +10836,10 @@
         <v>6</v>
       </c>
       <c r="N88" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O88" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P88" t="n">
         <v>1.22</v>
@@ -10895,13 +10943,13 @@
         <v>5.75</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J89" t="n">
         <v>1.01</v>
       </c>
       <c r="K89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L89" t="n">
         <v>1.1</v>
@@ -10910,16 +10958,16 @@
         <v>7</v>
       </c>
       <c r="N89" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O89" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P89" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q89" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R89" t="n">
         <v>1.62</v>
@@ -10934,7 +10982,7 @@
         <v>9</v>
       </c>
       <c r="V89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W89" t="n">
         <v>10</v>
@@ -10946,22 +10994,22 @@
         <v>19</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC89" t="n">
         <v>41</v>
       </c>
       <c r="AD89" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF89" t="n">
         <v>41</v>
@@ -10973,7 +11021,7 @@
         <v>81</v>
       </c>
       <c r="AI89" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ89" t="n">
         <v>41</v>
@@ -11373,10 +11421,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H93" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I93" t="n">
         <v>7.8</v>
@@ -11384,22 +11432,22 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M93" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="N93" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="O93" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="P93" t="n">
         <v>1.21</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="R93" t="n">
         <v>1.55</v>
@@ -11408,31 +11456,31 @@
         <v>2.3</v>
       </c>
       <c r="T93" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="U93" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V93" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W93" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X93" t="n">
         <v>9.75</v>
       </c>
       <c r="Y93" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB93" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC93" t="n">
         <v>45</v>
@@ -11441,10 +11489,10 @@
         <v>200</v>
       </c>
       <c r="AE93" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF93" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="n">
         <v>24</v>
@@ -11491,13 +11539,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I94" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -11505,69 +11553,69 @@
         <v>1.19</v>
       </c>
       <c r="M94" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N94" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O94" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S94" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U94" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V94" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="W94" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X94" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y94" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AB94" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD94" t="n">
         <v>300</v>
       </c>
       <c r="AE94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF94" t="n">
         <v>9.25</v>
       </c>
-      <c r="AF94" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG94" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH94" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AI94" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AJ94" t="n">
         <v>21</v>
@@ -11605,13 +11653,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -11619,13 +11667,13 @@
         <v>1.19</v>
       </c>
       <c r="M95" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N95" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O95" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -11636,28 +11684,28 @@
         <v>2.18</v>
       </c>
       <c r="T95" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="U95" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="V95" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W95" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X95" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y95" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z95" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB95" t="n">
         <v>12.5</v>
@@ -11669,22 +11717,22 @@
         <v>300</v>
       </c>
       <c r="AE95" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF95" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -12065,25 +12113,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I99" t="n">
         <v>7.5</v>
       </c>
       <c r="J99" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L99" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N99" t="n">
         <v>1.53</v>
@@ -12113,22 +12161,22 @@
         <v>9</v>
       </c>
       <c r="W99" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X99" t="n">
         <v>11</v>
       </c>
       <c r="Y99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z99" t="n">
         <v>17</v>
       </c>
       <c r="AA99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC99" t="n">
         <v>51</v>
@@ -12143,7 +12191,7 @@
         <v>41</v>
       </c>
       <c r="AG99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH99" t="n">
         <v>81</v>
@@ -12672,21 +12720,21 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O104" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P104" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U104" t="n">
         <v>13</v>
@@ -12698,10 +12746,10 @@
         <v>32</v>
       </c>
       <c r="X104" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y104" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z104" t="n">
         <v>8.75</v>
@@ -12710,7 +12758,7 @@
         <v>5.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC104" t="n">
         <v>55</v>
@@ -12719,7 +12767,7 @@
         <v>400</v>
       </c>
       <c r="AE104" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF104" t="n">
         <v>8.25</v>
@@ -12731,10 +12779,10 @@
         <v>15.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ104" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
@@ -12769,13 +12817,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="H105" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I105" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -12785,59 +12833,63 @@
         <v>1.78</v>
       </c>
       <c r="O105" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
+        <v>1.82</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U105" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V105" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="W105" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X105" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y105" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Z105" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA105" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH105" t="n">
         <v>11.25</v>
       </c>
-      <c r="AC105" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AI105" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AJ105" t="n">
         <v>19.5</v>
@@ -14370,16 +14422,16 @@
         <v>15</v>
       </c>
       <c r="L120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M120" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N120" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O120" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P120" t="n">
         <v>1.3</v>
@@ -14498,10 +14550,10 @@
         <v>5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O121" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P121" t="n">
         <v>1.25</v>
@@ -14736,10 +14788,10 @@
         <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M123" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N123" t="n">
         <v>1.7</v>
@@ -14965,7 +15017,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H125" t="n">
         <v>4</v>
@@ -15013,7 +15065,7 @@
         <v>9</v>
       </c>
       <c r="W125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X125" t="n">
         <v>15</v>
@@ -15038,7 +15090,7 @@
         <v>15</v>
       </c>
       <c r="AF125" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG125" t="n">
         <v>23</v>
@@ -15047,7 +15099,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ125" t="n">
         <v>67</v>
@@ -15573,13 +15625,13 @@
         <v>1.06</v>
       </c>
       <c r="K130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L130" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M130" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N130" t="n">
         <v>2.05</v>
@@ -15805,19 +15857,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H132" t="n">
         <v>4.2</v>
       </c>
       <c r="I132" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J132" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K132" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L132" t="n">
         <v>1.25</v>
@@ -15826,10 +15878,10 @@
         <v>3.75</v>
       </c>
       <c r="N132" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P132" t="n">
         <v>1.33</v>
@@ -15838,10 +15890,10 @@
         <v>3.25</v>
       </c>
       <c r="R132" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S132" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -15859,13 +15911,13 @@
         <v>12</v>
       </c>
       <c r="Y132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z132" t="n">
         <v>11</v>
       </c>
       <c r="AA132" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB132" t="n">
         <v>19</v>
@@ -15883,7 +15935,7 @@
         <v>34</v>
       </c>
       <c r="AG132" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH132" t="n">
         <v>67</v>
@@ -16293,10 +16345,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I136" t="n">
         <v>3.7</v>
@@ -16320,19 +16372,19 @@
         <v>2.35</v>
       </c>
       <c r="P136" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q136" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R136" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S136" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U136" t="n">
         <v>11</v>
@@ -16347,13 +16399,13 @@
         <v>13</v>
       </c>
       <c r="Y136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB136" t="n">
         <v>12</v>
@@ -16362,13 +16414,13 @@
         <v>34</v>
       </c>
       <c r="AD136" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE136" t="n">
         <v>15</v>
       </c>
       <c r="AF136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG136" t="n">
         <v>13</v>
@@ -16558,10 +16610,10 @@
         <v>4.33</v>
       </c>
       <c r="N138" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O138" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P138" t="n">
         <v>1.3</v>
@@ -16668,10 +16720,10 @@
         <v>3.7</v>
       </c>
       <c r="J139" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K139" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L139" t="n">
         <v>1.2</v>
@@ -16903,13 +16955,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H141" t="n">
         <v>3.4</v>
       </c>
       <c r="I141" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J141" t="n">
         <v>1.04</v>
@@ -16924,10 +16976,10 @@
         <v>4</v>
       </c>
       <c r="N141" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O141" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P141" t="n">
         <v>1.33</v>
@@ -16975,10 +17027,10 @@
         <v>151</v>
       </c>
       <c r="AE141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF141" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG141" t="n">
         <v>11</v>
@@ -17034,10 +17086,10 @@
         <v>2.75</v>
       </c>
       <c r="J142" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -17162,16 +17214,16 @@
         <v>7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M143" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N143" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O143" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P143" t="n">
         <v>1.5</v>
@@ -17391,10 +17443,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H145" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I145" t="n">
         <v>5.25</v>
@@ -17406,16 +17458,16 @@
         <v>12</v>
       </c>
       <c r="L145" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M145" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N145" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O145" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P145" t="n">
         <v>1.33</v>
@@ -17442,7 +17494,7 @@
         <v>11</v>
       </c>
       <c r="X145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y145" t="n">
         <v>26</v>
@@ -17451,10 +17503,10 @@
         <v>12</v>
       </c>
       <c r="AA145" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC145" t="n">
         <v>51</v>
@@ -17513,13 +17565,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H146" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I146" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="J146" t="n">
         <v>1.09</v>
@@ -17531,7 +17583,7 @@
         <v>1.42</v>
       </c>
       <c r="M146" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N146" t="n">
         <v>2.22</v>
@@ -17543,62 +17595,62 @@
         <v>1.52</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R146" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S146" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T146" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U146" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="V146" t="n">
         <v>8.5</v>
       </c>
       <c r="W146" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X146" t="n">
         <v>16</v>
       </c>
       <c r="Y146" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z146" t="n">
         <v>6.1</v>
       </c>
       <c r="AA146" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB146" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC146" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD146" t="inlineStr"/>
       <c r="AE146" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF146" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH146" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI146" t="n">
         <v>55</v>
       </c>
       <c r="AJ146" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147">
@@ -18687,19 +18739,19 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H164" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I164" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J164" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K164" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L164" t="n">
         <v>1.27</v>
@@ -18714,19 +18766,19 @@
         <v>1.9</v>
       </c>
       <c r="P164" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R164" t="n">
         <v>1.7</v>
       </c>
       <c r="S164" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T164" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U164" t="n">
         <v>9.75</v>
@@ -18738,40 +18790,40 @@
         <v>17.5</v>
       </c>
       <c r="X164" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y164" t="n">
         <v>24</v>
       </c>
       <c r="Z164" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB164" t="n">
         <v>13.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD164" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE164" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF164" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG164" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH164" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI164" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ164" t="n">
         <v>37</v>
@@ -19192,10 +19244,10 @@
         <v>10</v>
       </c>
       <c r="N168" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O168" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P168" t="n">
         <v>1.14</v>
@@ -19204,19 +19256,19 @@
         <v>5.5</v>
       </c>
       <c r="R168" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S168" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T168" t="n">
+        <v>21</v>
+      </c>
+      <c r="U168" t="n">
         <v>19</v>
       </c>
-      <c r="U168" t="n">
-        <v>17</v>
-      </c>
       <c r="V168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W168" t="n">
         <v>21</v>
@@ -19668,10 +19720,10 @@
         <v>5</v>
       </c>
       <c r="J172" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L172" t="n">
         <v>1.33</v>
@@ -19680,10 +19732,10 @@
         <v>3.25</v>
       </c>
       <c r="N172" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O172" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P172" t="n">
         <v>1.4</v>
@@ -19918,16 +19970,16 @@
         <v>11</v>
       </c>
       <c r="L174" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M174" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N174" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O174" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="P174" t="n">
         <v>1.36</v>
@@ -20147,13 +20199,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J176" t="n">
         <v>1.05</v>
@@ -20186,13 +20238,13 @@
         <v>2</v>
       </c>
       <c r="T176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U176" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W176" t="n">
         <v>41</v>
@@ -20222,7 +20274,7 @@
         <v>7.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG176" t="n">
         <v>8.5</v>
@@ -20656,10 +20708,10 @@
         <v>3.25</v>
       </c>
       <c r="N180" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O180" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P180" t="n">
         <v>1.44</v>
@@ -20879,25 +20931,25 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H182" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I182" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J182" t="n">
         <v>1.02</v>
       </c>
       <c r="K182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L182" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M182" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N182" t="n">
         <v>1.8</v>
@@ -20921,7 +20973,7 @@
         <v>13</v>
       </c>
       <c r="U182" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V182" t="n">
         <v>15</v>
@@ -20930,19 +20982,19 @@
         <v>41</v>
       </c>
       <c r="X182" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y182" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA182" t="n">
         <v>7</v>
       </c>
       <c r="AB182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC182" t="n">
         <v>41</v>
@@ -20954,7 +21006,7 @@
         <v>8</v>
       </c>
       <c r="AF182" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG182" t="n">
         <v>9</v>
@@ -21382,16 +21434,16 @@
         <v>9</v>
       </c>
       <c r="L186" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M186" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N186" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O186" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P186" t="n">
         <v>1.4</v>
@@ -21400,10 +21452,10 @@
         <v>2.75</v>
       </c>
       <c r="R186" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S186" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T186" t="n">
         <v>7.5</v>
@@ -21454,7 +21506,7 @@
         <v>29</v>
       </c>
       <c r="AJ186" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187">
@@ -21498,10 +21550,10 @@
         <v>2.38</v>
       </c>
       <c r="J187" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K187" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L187" t="n">
         <v>1.3</v>
@@ -21510,10 +21562,10 @@
         <v>3.4</v>
       </c>
       <c r="N187" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O187" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P187" t="n">
         <v>1.4</v>
@@ -21855,19 +21907,19 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H190" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I190" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J190" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L190" t="n">
         <v>1.33</v>
@@ -21876,52 +21928,52 @@
         <v>3.25</v>
       </c>
       <c r="N190" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
         <v>1.73</v>
       </c>
-      <c r="P190" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R190" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S190" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T190" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U190" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V190" t="n">
         <v>9</v>
       </c>
       <c r="W190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X190" t="n">
         <v>15</v>
       </c>
       <c r="Y190" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z190" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB190" t="n">
         <v>19</v>
       </c>
       <c r="AC190" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD190" t="n">
         <v>1000</v>
@@ -21930,7 +21982,7 @@
         <v>12</v>
       </c>
       <c r="AF190" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG190" t="n">
         <v>17</v>
@@ -21942,7 +21994,7 @@
         <v>41</v>
       </c>
       <c r="AJ190" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191">
@@ -22099,13 +22151,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>3</v>
       </c>
       <c r="I192" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J192" t="n">
         <v>1.08</v>
@@ -22120,10 +22172,10 @@
         <v>2.63</v>
       </c>
       <c r="N192" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O192" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P192" t="n">
         <v>1.5</v>
@@ -22138,7 +22190,7 @@
         <v>1.67</v>
       </c>
       <c r="T192" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U192" t="n">
         <v>9.5</v>
@@ -22147,7 +22199,7 @@
         <v>10</v>
       </c>
       <c r="W192" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X192" t="n">
         <v>21</v>
@@ -22183,7 +22235,7 @@
         <v>34</v>
       </c>
       <c r="AI192" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ192" t="n">
         <v>41</v>
@@ -22221,13 +22273,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H193" t="n">
         <v>3.25</v>
       </c>
       <c r="I193" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J193" t="n">
         <v>1.06</v>
@@ -22260,7 +22312,7 @@
         <v>1.83</v>
       </c>
       <c r="T193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U193" t="n">
         <v>21</v>
@@ -22284,7 +22336,7 @@
         <v>6.5</v>
       </c>
       <c r="AB193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC193" t="n">
         <v>51</v>
@@ -22296,7 +22348,7 @@
         <v>7</v>
       </c>
       <c r="AF193" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG193" t="n">
         <v>9</v>
@@ -22305,7 +22357,7 @@
         <v>15</v>
       </c>
       <c r="AI193" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ193" t="n">
         <v>29</v>
@@ -22352,10 +22404,10 @@
         <v>5</v>
       </c>
       <c r="J194" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K194" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L194" t="n">
         <v>1.29</v>
@@ -22412,7 +22464,7 @@
         <v>51</v>
       </c>
       <c r="AD194" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE194" t="n">
         <v>13</v>
@@ -22596,10 +22648,10 @@
         <v>6.25</v>
       </c>
       <c r="J196" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K196" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L196" t="n">
         <v>1.33</v>
@@ -22972,10 +23024,10 @@
         <v>3.5</v>
       </c>
       <c r="N199" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O199" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P199" t="n">
         <v>1.36</v>
@@ -23071,13 +23123,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H200" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I200" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J200" t="n">
         <v>1.05</v>
@@ -23119,7 +23171,7 @@
         <v>8.5</v>
       </c>
       <c r="W200" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X200" t="n">
         <v>15</v>
@@ -23128,7 +23180,7 @@
         <v>26</v>
       </c>
       <c r="Z200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA200" t="n">
         <v>6.5</v>
@@ -23437,19 +23489,19 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H203" t="n">
         <v>4.33</v>
       </c>
       <c r="I203" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J203" t="n">
         <v>1.01</v>
       </c>
       <c r="K203" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L203" t="n">
         <v>1.08</v>
@@ -23485,7 +23537,7 @@
         <v>9.5</v>
       </c>
       <c r="W203" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X203" t="n">
         <v>13</v>
@@ -23512,7 +23564,7 @@
         <v>21</v>
       </c>
       <c r="AF203" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG203" t="n">
         <v>13</v>
@@ -23568,10 +23620,10 @@
         <v>2.4</v>
       </c>
       <c r="J204" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K204" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L204" t="n">
         <v>1.11</v>
@@ -23598,7 +23650,7 @@
         <v>3</v>
       </c>
       <c r="T204" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U204" t="n">
         <v>19</v>
@@ -23613,13 +23665,13 @@
         <v>17</v>
       </c>
       <c r="Y204" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z204" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA204" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB204" t="n">
         <v>10</v>
@@ -23628,7 +23680,7 @@
         <v>26</v>
       </c>
       <c r="AD204" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE204" t="n">
         <v>15</v>
@@ -23824,10 +23876,10 @@
         <v>4</v>
       </c>
       <c r="N206" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O206" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P206" t="n">
         <v>1.33</v>
@@ -24047,13 +24099,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H208" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I208" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J208" t="n">
         <v>1.01</v>
@@ -24062,13 +24114,13 @@
         <v>23</v>
       </c>
       <c r="L208" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M208" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N208" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O208" t="n">
         <v>3.1</v>
@@ -24080,16 +24132,16 @@
         <v>4.33</v>
       </c>
       <c r="R208" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S208" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T208" t="n">
         <v>19</v>
       </c>
       <c r="U208" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V208" t="n">
         <v>13</v>
@@ -24098,7 +24150,7 @@
         <v>41</v>
       </c>
       <c r="X208" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y208" t="n">
         <v>23</v>
@@ -24128,7 +24180,7 @@
         <v>9</v>
       </c>
       <c r="AH208" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI208" t="n">
         <v>12</v>
@@ -24169,10 +24221,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H209" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I209" t="n">
         <v>1.53</v>
@@ -24180,77 +24232,77 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M209" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="N209" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R209" t="n">
         <v>2.07</v>
       </c>
-      <c r="O209" t="n">
+      <c r="S209" t="n">
         <v>1.6</v>
       </c>
-      <c r="P209" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R209" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S209" t="n">
-        <v>1.55</v>
-      </c>
       <c r="T209" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U209" t="n">
         <v>32</v>
       </c>
       <c r="V209" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W209" t="n">
         <v>120</v>
       </c>
       <c r="X209" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y209" t="n">
         <v>80</v>
       </c>
-      <c r="Y209" t="n">
-        <v>90</v>
-      </c>
       <c r="Z209" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA209" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB209" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC209" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD209" t="inlineStr"/>
       <c r="AE209" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AF209" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AG209" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH209" t="n">
         <v>10.25</v>
       </c>
       <c r="AI209" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ209" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210">
@@ -24285,27 +24337,27 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="H210" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I210" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M210" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N210" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O210" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P210" t="n">
         <v>1.38</v>
@@ -24314,22 +24366,22 @@
         <v>2.6</v>
       </c>
       <c r="R210" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S210" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T210" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="U210" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V210" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="W210" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X210" t="n">
         <v>70</v>
@@ -24338,37 +24390,37 @@
         <v>75</v>
       </c>
       <c r="Z210" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AA210" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB210" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC210" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD210" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE210" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AF210" t="n">
         <v>6.4</v>
       </c>
       <c r="AG210" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH210" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ210" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
@@ -24403,27 +24455,27 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H211" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I211" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M211" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="N211" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="O211" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="P211" t="n">
         <v>1.39</v>
@@ -24432,34 +24484,34 @@
         <v>2.57</v>
       </c>
       <c r="R211" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="S211" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T211" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="U211" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="V211" t="n">
         <v>9</v>
       </c>
       <c r="W211" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X211" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y211" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z211" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AA211" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB211" t="n">
         <v>27</v>
@@ -24469,7 +24521,7 @@
       </c>
       <c r="AD211" t="inlineStr"/>
       <c r="AE211" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF211" t="n">
         <v>100</v>
@@ -24481,10 +24533,10 @@
         <v>500</v>
       </c>
       <c r="AI211" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ211" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212">
@@ -24894,22 +24946,22 @@
         <v>6.5</v>
       </c>
       <c r="J215" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K215" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L215" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M215" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N215" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O215" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P215" t="n">
         <v>1.4</v>
@@ -25243,24 +25295,24 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H218" t="n">
         <v>2.77</v>
       </c>
       <c r="I218" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M218" t="n">
         <v>2.2</v>
       </c>
       <c r="N218" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O218" t="n">
         <v>1.4</v>
@@ -25281,19 +25333,19 @@
         <v>5.7</v>
       </c>
       <c r="U218" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V218" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W218" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X218" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y218" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z218" t="n">
         <v>5.9</v>
@@ -25309,19 +25361,19 @@
       </c>
       <c r="AD218" t="inlineStr"/>
       <c r="AE218" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF218" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG218" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH218" t="n">
         <v>45</v>
       </c>
       <c r="AI218" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ218" t="n">
         <v>55</v>
@@ -25603,13 +25655,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H221" t="n">
         <v>3.5</v>
       </c>
       <c r="I221" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J221" t="n">
         <v>1.04</v>
@@ -25642,19 +25694,19 @@
         <v>2.1</v>
       </c>
       <c r="T221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U221" t="n">
         <v>17</v>
       </c>
       <c r="V221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W221" t="n">
         <v>34</v>
       </c>
       <c r="X221" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y221" t="n">
         <v>29</v>
@@ -25684,7 +25736,7 @@
         <v>9</v>
       </c>
       <c r="AH221" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI221" t="n">
         <v>17</v>
@@ -25725,13 +25777,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H222" t="n">
         <v>3.5</v>
       </c>
       <c r="I222" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J222" t="n">
         <v>1.03</v>
@@ -25767,7 +25819,7 @@
         <v>12</v>
       </c>
       <c r="U222" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V222" t="n">
         <v>11</v>
@@ -25782,7 +25834,7 @@
         <v>26</v>
       </c>
       <c r="Z222" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA222" t="n">
         <v>7</v>
@@ -25797,7 +25849,7 @@
         <v>126</v>
       </c>
       <c r="AE222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF222" t="n">
         <v>13</v>
@@ -25978,10 +26030,10 @@
         <v>4.5</v>
       </c>
       <c r="J224" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L224" t="n">
         <v>1.14</v>
@@ -26356,10 +26408,10 @@
         <v>3.5</v>
       </c>
       <c r="N227" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O227" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P227" t="n">
         <v>1.36</v>
@@ -26701,13 +26753,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H230" t="n">
         <v>3.7</v>
       </c>
       <c r="I230" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J230" t="n">
         <v>1.04</v>
@@ -26722,10 +26774,10 @@
         <v>3.75</v>
       </c>
       <c r="N230" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O230" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P230" t="n">
         <v>1.33</v>
@@ -26740,16 +26792,16 @@
         <v>2.1</v>
       </c>
       <c r="T230" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U230" t="n">
         <v>13</v>
       </c>
       <c r="V230" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W230" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X230" t="n">
         <v>19</v>
@@ -26773,7 +26825,7 @@
         <v>151</v>
       </c>
       <c r="AE230" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF230" t="n">
         <v>13</v>
@@ -26823,13 +26875,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H231" t="n">
         <v>3.7</v>
       </c>
       <c r="I231" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J231" t="n">
         <v>1.04</v>
@@ -26862,7 +26914,7 @@
         <v>2.2</v>
       </c>
       <c r="T231" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U231" t="n">
         <v>11</v>
@@ -26898,16 +26950,16 @@
         <v>12</v>
       </c>
       <c r="AF231" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG231" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH231" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI231" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ231" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-24.xlsx
@@ -1025,7 +1025,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>6</v>
@@ -1207,22 +1207,22 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N7" t="n">
         <v>1.67</v>
@@ -1754,10 +1754,10 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.62</v>
@@ -2227,19 +2227,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.62</v>
@@ -2254,10 +2254,10 @@
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
         <v>2.75</v>
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2297,13 +2297,13 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2596,13 +2596,13 @@
         <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
         <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M18" t="n">
         <v>2.2</v>
@@ -3073,13 +3073,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -3136,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
@@ -3151,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>51</v>
@@ -3216,10 +3216,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3317,82 +3317,82 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="N24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O24" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="T24" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="U24" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="V24" t="n">
         <v>8.25</v>
       </c>
       <c r="W24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE24" t="n">
         <v>14</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AF24" t="n">
         <v>22</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3401,10 +3401,10 @@
         <v>50</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3439,13 +3439,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H25" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>1.02</v>
@@ -3457,7 +3457,7 @@
         <v>1.1</v>
       </c>
       <c r="M25" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N25" t="n">
         <v>1.33</v>
@@ -3472,22 +3472,22 @@
         <v>4.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
         <v>11.75</v>
@@ -3523,10 +3523,10 @@
         <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -3792,10 +3792,10 @@
         <v>1.67</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3831,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3849,7 +3849,7 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
         <v>13</v>
@@ -3861,7 +3861,7 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
         <v>26</v>
@@ -3911,19 +3911,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L29" t="n">
         <v>1.13</v>
@@ -3938,16 +3938,16 @@
         <v>2.7</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T29" t="n">
         <v>17</v>
@@ -3968,7 +3968,7 @@
         <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
@@ -3983,13 +3983,13 @@
         <v>81</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4164,10 +4164,10 @@
         <v>1.53</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.18</v>
@@ -4182,16 +4182,16 @@
         <v>2.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>19</v>
@@ -4203,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="W31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X31" t="n">
         <v>41</v>
@@ -4230,13 +4230,13 @@
         <v>8.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>8.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
@@ -4277,13 +4277,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4298,10 +4298,10 @@
         <v>5.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4325,13 +4325,13 @@
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
         <v>17</v>
@@ -4340,7 +4340,7 @@
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4408,13 +4408,13 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K33" t="n">
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -4843,7 +4843,7 @@
         <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH36" t="n">
         <v>90</v>
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>1.11</v>
@@ -4902,77 +4902,77 @@
         <v>5.7</v>
       </c>
       <c r="L37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.47</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R37" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U37" t="n">
         <v>9.5</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
         <v>22</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="n">
         <v>5.7</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AF37" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="n">
         <v>35</v>
       </c>
       <c r="AJ37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I38" t="n">
         <v>2.92</v>
@@ -5046,13 +5046,13 @@
         <v>1.65</v>
       </c>
       <c r="T38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U38" t="n">
         <v>10.75</v>
       </c>
       <c r="V38" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W38" t="n">
         <v>26</v>
@@ -5070,20 +5070,20 @@
         <v>5.9</v>
       </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC38" t="n">
         <v>120</v>
       </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH38" t="n">
         <v>37</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
         <v>2.62</v>
@@ -6309,37 +6309,37 @@
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N50" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O50" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P50" t="n">
         <v>1.42</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R50" t="n">
         <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T50" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U50" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V50" t="n">
         <v>10.25</v>
@@ -6348,19 +6348,19 @@
         <v>30</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA50" t="n">
         <v>6.8</v>
       </c>
       <c r="AB50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC50" t="n">
         <v>65</v>
@@ -6470,7 +6470,7 @@
         <v>32</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y51" t="n">
         <v>30</v>
@@ -6482,7 +6482,7 @@
         <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC51" t="n">
         <v>60</v>
@@ -6491,7 +6491,7 @@
         <v>500</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF51" t="n">
         <v>14.5</v>
@@ -6503,7 +6503,7 @@
         <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ51" t="n">
         <v>32</v>
@@ -6562,10 +6562,10 @@
         <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O52" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -7271,19 +7271,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H58" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J58" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
         <v>1.5</v>
@@ -7340,7 +7340,7 @@
         <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE58" t="n">
         <v>7.5</v>
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -7414,37 +7414,37 @@
         <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R59" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T59" t="n">
         <v>5.5</v>
       </c>
       <c r="U59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V59" t="n">
         <v>9</v>
       </c>
       <c r="W59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
         <v>34</v>
@@ -7453,31 +7453,31 @@
         <v>7.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="n">
         <v>1250</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH59" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI59" t="n">
         <v>51</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>41</v>
       </c>
       <c r="AJ59" t="n">
         <v>51</v>
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H60" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -7529,13 +7529,13 @@
         <v>1.4</v>
       </c>
       <c r="M60" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N60" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P60" t="n">
         <v>1.55</v>
@@ -7547,31 +7547,31 @@
         <v>1.82</v>
       </c>
       <c r="S60" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T60" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U60" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V60" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W60" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB60" t="n">
         <v>14</v>
@@ -7583,19 +7583,19 @@
         <v>700</v>
       </c>
       <c r="AE60" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH60" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ60" t="n">
         <v>50</v>
@@ -7636,10 +7636,10 @@
         <v>1.57</v>
       </c>
       <c r="H61" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7647,10 +7647,10 @@
         <v>1.35</v>
       </c>
       <c r="M61" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="N61" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O61" t="n">
         <v>1.62</v>
@@ -7659,7 +7659,7 @@
         <v>1.45</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R61" t="n">
         <v>2.07</v>
@@ -7668,10 +7668,10 @@
         <v>1.6</v>
       </c>
       <c r="T61" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U61" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
@@ -7702,7 +7702,7 @@
         <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG61" t="n">
         <v>19</v>
@@ -7714,7 +7714,7 @@
         <v>70</v>
       </c>
       <c r="AJ61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -8112,10 +8112,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M65" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="N65" t="n">
         <v>2.2</v>
@@ -8124,16 +8124,16 @@
         <v>1.65</v>
       </c>
       <c r="P65" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S65" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T65" t="n">
         <v>8</v>
@@ -8166,7 +8166,7 @@
         <v>67</v>
       </c>
       <c r="AD65" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE65" t="n">
         <v>7</v>
@@ -8521,13 +8521,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
         <v>1.03</v>
@@ -8548,37 +8548,37 @@
         <v>2.1</v>
       </c>
       <c r="P69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R69" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T69" t="n">
         <v>8.5</v>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V69" t="n">
         <v>8.5</v>
       </c>
       <c r="W69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y69" t="n">
         <v>23</v>
       </c>
       <c r="Z69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA69" t="n">
         <v>7.5</v>
@@ -8593,22 +8593,22 @@
         <v>151</v>
       </c>
       <c r="AE69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH69" t="n">
         <v>41</v>
       </c>
       <c r="AI69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -8887,13 +8887,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
         <v>1.02</v>
@@ -9253,13 +9253,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H75" t="n">
         <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J75" t="n">
         <v>1.05</v>
@@ -9295,7 +9295,7 @@
         <v>8.5</v>
       </c>
       <c r="U75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V75" t="n">
         <v>9.5</v>
@@ -9304,7 +9304,7 @@
         <v>21</v>
       </c>
       <c r="X75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="n">
         <v>26</v>
@@ -9325,22 +9325,22 @@
         <v>201</v>
       </c>
       <c r="AE75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI75" t="n">
         <v>23</v>
       </c>
       <c r="AJ75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -9497,25 +9497,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H77" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J77" t="n">
         <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="L77" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M77" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N77" t="n">
         <v>1.75</v>
@@ -9524,67 +9524,67 @@
         <v>1.95</v>
       </c>
       <c r="P77" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S77" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T77" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="U77" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="V77" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W77" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
       </c>
       <c r="Y77" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z77" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF77" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG77" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH77" t="n">
         <v>120</v>
       </c>
       <c r="AI77" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ77" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -9863,19 +9863,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H80" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L80" t="n">
         <v>1.5</v>
@@ -9884,10 +9884,10 @@
         <v>2.63</v>
       </c>
       <c r="N80" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O80" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P80" t="n">
         <v>1.53</v>
@@ -9926,7 +9926,7 @@
         <v>6</v>
       </c>
       <c r="AB80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
         <v>67</v>
@@ -10235,7 +10235,7 @@
         <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
@@ -10815,19 +10815,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>4.2</v>
       </c>
       <c r="I88" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J88" t="n">
         <v>1.02</v>
       </c>
       <c r="K88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L88" t="n">
         <v>1.13</v>
@@ -10836,10 +10836,10 @@
         <v>6</v>
       </c>
       <c r="N88" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O88" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P88" t="n">
         <v>1.22</v>
@@ -10863,7 +10863,7 @@
         <v>15</v>
       </c>
       <c r="W88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X88" t="n">
         <v>29</v>
@@ -10958,10 +10958,10 @@
         <v>7</v>
       </c>
       <c r="N89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O89" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P89" t="n">
         <v>1.2</v>
@@ -11181,13 +11181,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I91" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -11204,67 +11204,67 @@
         <v>3.05</v>
       </c>
       <c r="P91" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q91" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="R91" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T91" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V91" t="n">
         <v>8.75</v>
       </c>
       <c r="W91" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X91" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z91" t="n">
         <v>27</v>
       </c>
       <c r="AA91" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB91" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD91" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH91" t="n">
         <v>150</v>
       </c>
-      <c r="AE91" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>120</v>
-      </c>
       <c r="AI91" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ91" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
@@ -11299,13 +11299,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H92" t="n">
         <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J92" t="n">
         <v>1.04</v>
@@ -11314,10 +11314,10 @@
         <v>8.25</v>
       </c>
       <c r="L92" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M92" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="N92" t="n">
         <v>1.65</v>
@@ -11332,28 +11332,28 @@
         <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S92" t="n">
         <v>2.32</v>
       </c>
       <c r="T92" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="U92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V92" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W92" t="n">
         <v>37</v>
       </c>
       <c r="X92" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y92" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z92" t="n">
         <v>8.25</v>
@@ -11371,10 +11371,10 @@
         <v>250</v>
       </c>
       <c r="AE92" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF92" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG92" t="n">
         <v>8.75</v>
@@ -11383,10 +11383,10 @@
         <v>23</v>
       </c>
       <c r="AI92" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -11421,13 +11421,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I93" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -11435,13 +11435,13 @@
         <v>1.1</v>
       </c>
       <c r="M93" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N93" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="P93" t="n">
         <v>1.21</v>
@@ -11465,7 +11465,7 @@
         <v>8.75</v>
       </c>
       <c r="W93" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X93" t="n">
         <v>9.75</v>
@@ -11477,7 +11477,7 @@
         <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB93" t="n">
         <v>15.5</v>
@@ -11489,22 +11489,22 @@
         <v>200</v>
       </c>
       <c r="AE93" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF93" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG93" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH93" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI93" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ93" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
@@ -11539,13 +11539,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H94" t="n">
         <v>3.95</v>
       </c>
       <c r="I94" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -11556,10 +11556,10 @@
         <v>3.75</v>
       </c>
       <c r="N94" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O94" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -11570,16 +11570,16 @@
         <v>2.1</v>
       </c>
       <c r="T94" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V94" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W94" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X94" t="n">
         <v>32</v>
@@ -11588,10 +11588,10 @@
         <v>32</v>
       </c>
       <c r="Z94" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB94" t="n">
         <v>13.5</v>
@@ -11606,13 +11606,13 @@
         <v>9</v>
       </c>
       <c r="AF94" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG94" t="n">
         <v>8.25</v>
       </c>
       <c r="AH94" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI94" t="n">
         <v>12.5</v>
@@ -11653,13 +11653,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -11667,45 +11667,45 @@
         <v>1.19</v>
       </c>
       <c r="M95" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N95" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O95" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S95" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T95" t="n">
         <v>11.25</v>
       </c>
       <c r="U95" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V95" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W95" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y95" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB95" t="n">
         <v>12.5</v>
@@ -11714,22 +11714,22 @@
         <v>45</v>
       </c>
       <c r="AD95" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE95" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG95" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI95" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ95" t="n">
         <v>23</v>
@@ -12006,10 +12006,10 @@
         <v>21</v>
       </c>
       <c r="L98" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N98" t="n">
         <v>1.4</v>
@@ -12378,10 +12378,10 @@
         <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O101" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12601,13 +12601,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="H103" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I103" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -12624,55 +12624,55 @@
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="U103" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V103" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="W103" t="n">
         <v>400</v>
       </c>
       <c r="X103" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y103" t="n">
         <v>150</v>
       </c>
-      <c r="Y103" t="n">
-        <v>110</v>
-      </c>
       <c r="Z103" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB103" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC103" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD103" t="n">
         <v>600</v>
       </c>
       <c r="AE103" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF103" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AG103" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AI103" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ103" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -12726,15 +12726,15 @@
         <v>1.65</v>
       </c>
       <c r="P104" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U104" t="n">
         <v>13</v>
@@ -12743,7 +12743,7 @@
         <v>9.5</v>
       </c>
       <c r="W104" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X104" t="n">
         <v>23</v>
@@ -12752,7 +12752,7 @@
         <v>30</v>
       </c>
       <c r="Z104" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA104" t="n">
         <v>5.5</v>
@@ -12930,10 +12930,10 @@
         <v>1.7</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I106" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -12962,10 +12962,10 @@
         <v>2</v>
       </c>
       <c r="T106" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U106" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V106" t="n">
         <v>7.8</v>
@@ -12974,13 +12974,13 @@
         <v>14.5</v>
       </c>
       <c r="X106" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z106" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA106" t="n">
         <v>6.7</v>
@@ -13007,7 +13007,7 @@
         <v>90</v>
       </c>
       <c r="AI106" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ106" t="n">
         <v>45</v>
@@ -14163,19 +14163,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J118" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L118" t="n">
         <v>1.4</v>
@@ -14190,10 +14190,10 @@
         <v>1.62</v>
       </c>
       <c r="P118" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R118" t="n">
         <v>1.95</v>
@@ -14202,7 +14202,7 @@
         <v>1.8</v>
       </c>
       <c r="T118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U118" t="n">
         <v>15</v>
@@ -14223,7 +14223,7 @@
         <v>8</v>
       </c>
       <c r="AA118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB118" t="n">
         <v>17</v>
@@ -14291,25 +14291,25 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J119" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L119" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M119" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N119" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O119" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -14324,7 +14324,7 @@
         <v>2.05</v>
       </c>
       <c r="T119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U119" t="n">
         <v>9</v>
@@ -14339,10 +14339,10 @@
         <v>13</v>
       </c>
       <c r="Y119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA119" t="n">
         <v>7.5</v>
@@ -14354,7 +14354,7 @@
         <v>41</v>
       </c>
       <c r="AD119" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE119" t="n">
         <v>15</v>
@@ -14550,10 +14550,10 @@
         <v>5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O121" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P121" t="n">
         <v>1.25</v>
@@ -14672,10 +14672,10 @@
         <v>5.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O122" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P122" t="n">
         <v>1.25</v>
@@ -14895,13 +14895,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>3.6</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J124" t="n">
         <v>1.04</v>
@@ -14967,7 +14967,7 @@
         <v>151</v>
       </c>
       <c r="AE124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF124" t="n">
         <v>11</v>
@@ -15274,10 +15274,10 @@
         <v>8.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M127" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N127" t="n">
         <v>2.05</v>
@@ -15292,13 +15292,13 @@
         <v>2.75</v>
       </c>
       <c r="R127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S127" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T127" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U127" t="n">
         <v>6</v>
@@ -15319,7 +15319,7 @@
         <v>8.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB127" t="n">
         <v>21</v>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF127" t="n">
         <v>41</v>
@@ -15613,31 +15613,31 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>3.25</v>
       </c>
       <c r="I130" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J130" t="n">
         <v>1.06</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M130" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N130" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -15646,13 +15646,13 @@
         <v>2.75</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S130" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U130" t="n">
         <v>15</v>
@@ -15676,13 +15676,13 @@
         <v>6</v>
       </c>
       <c r="AB130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="n">
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE130" t="n">
         <v>8</v>
@@ -15735,7 +15735,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H131" t="n">
         <v>5</v>
@@ -15756,10 +15756,10 @@
         <v>3.75</v>
       </c>
       <c r="N131" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P131" t="n">
         <v>1.33</v>
@@ -15768,16 +15768,16 @@
         <v>3.25</v>
       </c>
       <c r="R131" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S131" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T131" t="n">
         <v>6.5</v>
       </c>
       <c r="U131" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V131" t="n">
         <v>9</v>
@@ -15801,7 +15801,7 @@
         <v>23</v>
       </c>
       <c r="AC131" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD131" t="n">
         <v>351</v>
@@ -15813,10 +15813,10 @@
         <v>41</v>
       </c>
       <c r="AG131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH131" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="n">
         <v>51</v>
@@ -16110,10 +16110,10 @@
         <v>3.1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K134" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L134" t="n">
         <v>1.14</v>
@@ -16122,10 +16122,10 @@
         <v>5.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O134" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P134" t="n">
         <v>1.25</v>
@@ -16589,10 +16589,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I138" t="n">
         <v>2.15</v>
@@ -16604,31 +16604,31 @@
         <v>15</v>
       </c>
       <c r="L138" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M138" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N138" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O138" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P138" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q138" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R138" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S138" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U138" t="n">
         <v>17</v>
@@ -16640,7 +16640,7 @@
         <v>34</v>
       </c>
       <c r="X138" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y138" t="n">
         <v>26</v>
@@ -16649,7 +16649,7 @@
         <v>15</v>
       </c>
       <c r="AA138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB138" t="n">
         <v>12</v>
@@ -16848,10 +16848,10 @@
         <v>17</v>
       </c>
       <c r="L140" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M140" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N140" t="n">
         <v>1.57</v>
@@ -16955,13 +16955,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H141" t="n">
         <v>3.4</v>
       </c>
       <c r="I141" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J141" t="n">
         <v>1.04</v>
@@ -16988,10 +16988,10 @@
         <v>3.25</v>
       </c>
       <c r="R141" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S141" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T141" t="n">
         <v>10</v>
@@ -17030,7 +17030,7 @@
         <v>11</v>
       </c>
       <c r="AF141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG141" t="n">
         <v>11</v>
@@ -17077,19 +17077,19 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H142" t="n">
         <v>3.2</v>
       </c>
       <c r="I142" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J142" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -17137,7 +17137,7 @@
         <v>8</v>
       </c>
       <c r="AA142" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB142" t="n">
         <v>17</v>
@@ -17208,10 +17208,10 @@
         <v>2.4</v>
       </c>
       <c r="J143" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L143" t="n">
         <v>1.44</v>
@@ -17220,10 +17220,10 @@
         <v>2.63</v>
       </c>
       <c r="N143" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P143" t="n">
         <v>1.5</v>
@@ -17321,13 +17321,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H144" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I144" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J144" t="n">
         <v>1.05</v>
@@ -17354,19 +17354,19 @@
         <v>3</v>
       </c>
       <c r="R144" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S144" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
         <v>8</v>
       </c>
       <c r="U144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V144" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W144" t="n">
         <v>17</v>
@@ -17390,10 +17390,10 @@
         <v>41</v>
       </c>
       <c r="AD144" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF144" t="n">
         <v>21</v>
@@ -17443,19 +17443,19 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I145" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J145" t="n">
         <v>1.04</v>
       </c>
       <c r="K145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L145" t="n">
         <v>1.22</v>
@@ -17482,7 +17482,7 @@
         <v>1.83</v>
       </c>
       <c r="T145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U145" t="n">
         <v>7.5</v>
@@ -17503,16 +17503,16 @@
         <v>12</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC145" t="n">
         <v>51</v>
       </c>
       <c r="AD145" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE145" t="n">
         <v>15</v>
@@ -17524,7 +17524,7 @@
         <v>17</v>
       </c>
       <c r="AH145" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI145" t="n">
         <v>41</v>
@@ -17565,92 +17565,92 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H146" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I146" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="J146" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K146" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U146" t="n">
         <v>6.1</v>
       </c>
-      <c r="L146" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M146" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="N146" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P146" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R146" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S146" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T146" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="U146" t="n">
-        <v>7.2</v>
-      </c>
       <c r="V146" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W146" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="X146" t="n">
         <v>16</v>
       </c>
       <c r="Y146" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AA146" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AB146" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC146" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD146" t="inlineStr"/>
       <c r="AE146" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG146" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH146" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI146" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ146" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
@@ -18864,10 +18864,10 @@
         <v>1.42</v>
       </c>
       <c r="H165" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I165" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J165" t="n">
         <v>1.03</v>
@@ -18879,7 +18879,7 @@
         <v>1.19</v>
       </c>
       <c r="M165" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N165" t="n">
         <v>1.57</v>
@@ -18891,7 +18891,7 @@
         <v>1.31</v>
       </c>
       <c r="Q165" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R165" t="n">
         <v>1.78</v>
@@ -18924,7 +18924,7 @@
         <v>9</v>
       </c>
       <c r="AB165" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC165" t="n">
         <v>70</v>
@@ -18933,7 +18933,7 @@
         <v>500</v>
       </c>
       <c r="AE165" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF165" t="n">
         <v>40</v>
@@ -19022,7 +19022,7 @@
         <v>1.75</v>
       </c>
       <c r="T166" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U166" t="n">
         <v>6.5</v>
@@ -19049,7 +19049,7 @@
         <v>23</v>
       </c>
       <c r="AC166" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD166" t="n">
         <v>800</v>
@@ -19467,94 +19467,94 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H170" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="I170" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K170" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L170" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M170" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N170" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O170" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P170" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R170" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S170" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T170" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U170" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="V170" t="n">
         <v>8.75</v>
       </c>
       <c r="W170" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X170" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y170" t="n">
         <v>28</v>
       </c>
       <c r="Z170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA170" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA170" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB170" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC170" t="n">
         <v>90</v>
       </c>
       <c r="AD170" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE170" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF170" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG170" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AH170" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI170" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ170" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171">
@@ -19711,13 +19711,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H172" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I172" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J172" t="n">
         <v>1.06</v>
@@ -19759,7 +19759,7 @@
         <v>8.5</v>
       </c>
       <c r="W172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X172" t="n">
         <v>15</v>
@@ -19854,10 +19854,10 @@
         <v>3.75</v>
       </c>
       <c r="N173" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O173" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P173" t="n">
         <v>1.36</v>
@@ -19976,10 +19976,10 @@
         <v>3.5</v>
       </c>
       <c r="N174" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O174" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P174" t="n">
         <v>1.36</v>
@@ -20098,10 +20098,10 @@
         <v>3</v>
       </c>
       <c r="N175" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O175" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P175" t="n">
         <v>1.44</v>
@@ -20199,13 +20199,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J176" t="n">
         <v>1.05</v>
@@ -20238,13 +20238,13 @@
         <v>2</v>
       </c>
       <c r="T176" t="n">
+        <v>12</v>
+      </c>
+      <c r="U176" t="n">
+        <v>21</v>
+      </c>
+      <c r="V176" t="n">
         <v>13</v>
-      </c>
-      <c r="U176" t="n">
-        <v>23</v>
-      </c>
-      <c r="V176" t="n">
-        <v>15</v>
       </c>
       <c r="W176" t="n">
         <v>41</v>
@@ -20253,7 +20253,7 @@
         <v>34</v>
       </c>
       <c r="Y176" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z176" t="n">
         <v>11</v>
@@ -20274,7 +20274,7 @@
         <v>7.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG176" t="n">
         <v>8.5</v>
@@ -20342,10 +20342,10 @@
         <v>3.75</v>
       </c>
       <c r="N177" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O177" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P177" t="n">
         <v>1.36</v>
@@ -20443,13 +20443,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H178" t="n">
         <v>3.2</v>
       </c>
       <c r="I178" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J178" t="n">
         <v>1.07</v>
@@ -20476,61 +20476,61 @@
         <v>2.63</v>
       </c>
       <c r="R178" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S178" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W178" t="n">
         <v>41</v>
       </c>
       <c r="X178" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y178" t="n">
         <v>41</v>
       </c>
       <c r="Z178" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA178" t="n">
         <v>6.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC178" t="n">
         <v>51</v>
       </c>
       <c r="AD178" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE178" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF178" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG178" t="n">
         <v>9</v>
       </c>
       <c r="AH178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ178" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
@@ -20687,13 +20687,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="H180" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I180" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J180" t="n">
         <v>1.05</v>
@@ -20708,10 +20708,10 @@
         <v>3.25</v>
       </c>
       <c r="N180" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O180" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P180" t="n">
         <v>1.44</v>
@@ -20720,10 +20720,10 @@
         <v>2.63</v>
       </c>
       <c r="R180" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S180" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -20753,13 +20753,13 @@
         <v>21</v>
       </c>
       <c r="AC180" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD180" t="n">
         <v>1000</v>
       </c>
       <c r="AE180" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF180" t="n">
         <v>6.5</v>
@@ -20809,19 +20809,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H181" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I181" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="J181" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L181" t="n">
         <v>1.25</v>
@@ -20830,10 +20830,10 @@
         <v>3.75</v>
       </c>
       <c r="N181" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O181" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P181" t="n">
         <v>1.36</v>
@@ -20851,28 +20851,28 @@
         <v>13</v>
       </c>
       <c r="U181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W181" t="n">
         <v>41</v>
       </c>
       <c r="X181" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y181" t="n">
         <v>34</v>
       </c>
-      <c r="Y181" t="n">
-        <v>41</v>
-      </c>
       <c r="Z181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC181" t="n">
         <v>41</v>
@@ -20884,13 +20884,13 @@
         <v>8</v>
       </c>
       <c r="AF181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG181" t="n">
         <v>9</v>
       </c>
       <c r="AH181" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI181" t="n">
         <v>15</v>
@@ -20931,25 +20931,25 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H182" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I182" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J182" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K182" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L182" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M182" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N182" t="n">
         <v>1.8</v>
@@ -20973,7 +20973,7 @@
         <v>13</v>
       </c>
       <c r="U182" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V182" t="n">
         <v>15</v>
@@ -20988,13 +20988,13 @@
         <v>41</v>
       </c>
       <c r="Z182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA182" t="n">
         <v>7</v>
       </c>
       <c r="AB182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC182" t="n">
         <v>41</v>
@@ -21113,7 +21113,7 @@
         <v>7</v>
       </c>
       <c r="AA183" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB183" t="n">
         <v>15</v>
@@ -21916,10 +21916,10 @@
         <v>4.75</v>
       </c>
       <c r="J190" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L190" t="n">
         <v>1.33</v>
@@ -22038,10 +22038,10 @@
         <v>2.63</v>
       </c>
       <c r="J191" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K191" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L191" t="n">
         <v>1.22</v>
@@ -22050,10 +22050,10 @@
         <v>4</v>
       </c>
       <c r="N191" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O191" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P191" t="n">
         <v>1.33</v>
@@ -22160,10 +22160,10 @@
         <v>3.2</v>
       </c>
       <c r="J192" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K192" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L192" t="n">
         <v>1.44</v>
@@ -22273,19 +22273,19 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H193" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I193" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K193" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L193" t="n">
         <v>1.3</v>
@@ -22294,10 +22294,10 @@
         <v>3.4</v>
       </c>
       <c r="N193" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O193" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P193" t="n">
         <v>1.4</v>
@@ -22312,19 +22312,19 @@
         <v>1.83</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U193" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V193" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W193" t="n">
         <v>41</v>
       </c>
       <c r="X193" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y193" t="n">
         <v>41</v>
@@ -22336,28 +22336,28 @@
         <v>6.5</v>
       </c>
       <c r="AB193" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC193" t="n">
         <v>51</v>
       </c>
       <c r="AD193" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE193" t="n">
         <v>7</v>
       </c>
       <c r="AF193" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG193" t="n">
         <v>9</v>
       </c>
       <c r="AH193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ193" t="n">
         <v>29</v>
@@ -22586,7 +22586,7 @@
         <v>51</v>
       </c>
       <c r="AD195" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE195" t="n">
         <v>8.5</v>
@@ -22828,7 +22828,7 @@
         <v>41</v>
       </c>
       <c r="AD197" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE197" t="n">
         <v>10</v>
@@ -23376,10 +23376,10 @@
         <v>3.6</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L202" t="n">
         <v>1.29</v>
@@ -23388,10 +23388,10 @@
         <v>3.5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O202" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -23489,19 +23489,19 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>4.33</v>
       </c>
       <c r="I203" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J203" t="n">
         <v>1.01</v>
       </c>
       <c r="K203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L203" t="n">
         <v>1.08</v>
@@ -23537,7 +23537,7 @@
         <v>9.5</v>
       </c>
       <c r="W203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X203" t="n">
         <v>13</v>
@@ -23564,7 +23564,7 @@
         <v>21</v>
       </c>
       <c r="AF203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG203" t="n">
         <v>13</v>
@@ -23620,10 +23620,10 @@
         <v>2.4</v>
       </c>
       <c r="J204" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K204" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L204" t="n">
         <v>1.11</v>
@@ -23650,7 +23650,7 @@
         <v>3</v>
       </c>
       <c r="T204" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U204" t="n">
         <v>19</v>
@@ -23668,19 +23668,19 @@
         <v>19</v>
       </c>
       <c r="Z204" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC204" t="n">
         <v>26</v>
       </c>
       <c r="AD204" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE204" t="n">
         <v>15</v>
@@ -23745,7 +23745,7 @@
         <v>1.02</v>
       </c>
       <c r="K205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L205" t="n">
         <v>1.13</v>
@@ -23876,10 +23876,10 @@
         <v>4</v>
       </c>
       <c r="N206" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O206" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P206" t="n">
         <v>1.33</v>
@@ -23986,10 +23986,10 @@
         <v>2.38</v>
       </c>
       <c r="J207" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K207" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L207" t="n">
         <v>1.14</v>
@@ -24120,7 +24120,7 @@
         <v>6.5</v>
       </c>
       <c r="N208" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O208" t="n">
         <v>3.1</v>
@@ -24221,88 +24221,88 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H209" t="n">
         <v>3.85</v>
       </c>
       <c r="I209" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M209" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N209" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O209" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P209" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R209" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S209" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T209" t="n">
         <v>13</v>
       </c>
       <c r="U209" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V209" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="W209" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X209" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y209" t="n">
         <v>70</v>
       </c>
-      <c r="Y209" t="n">
-        <v>80</v>
-      </c>
       <c r="Z209" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA209" t="n">
         <v>7.6</v>
       </c>
       <c r="AB209" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC209" t="n">
         <v>120</v>
       </c>
       <c r="AD209" t="inlineStr"/>
       <c r="AE209" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF209" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG209" t="n">
         <v>8.5</v>
       </c>
       <c r="AH209" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI209" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ209" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -24693,13 +24693,13 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H213" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I213" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="J213" t="n">
         <v>1.04</v>
@@ -24711,76 +24711,76 @@
         <v>1.21</v>
       </c>
       <c r="M213" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="N213" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O213" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P213" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q213" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R213" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S213" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T213" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U213" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V213" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="W213" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X213" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z213" t="n">
         <v>8.5</v>
       </c>
       <c r="AA213" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB213" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC213" t="n">
         <v>45</v>
       </c>
       <c r="AD213" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE213" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF213" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AG213" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ213" t="n">
         <v>21</v>
-      </c>
-      <c r="AI213" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ213" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="214">
@@ -25548,10 +25548,10 @@
         <v>17</v>
       </c>
       <c r="L220" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M220" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N220" t="n">
         <v>1.53</v>
@@ -25947,10 +25947,10 @@
         <v>10</v>
       </c>
       <c r="W223" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X223" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y223" t="n">
         <v>29</v>
@@ -25974,7 +25974,7 @@
         <v>9.5</v>
       </c>
       <c r="AF223" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG223" t="n">
         <v>10</v>
@@ -26155,7 +26155,7 @@
         <v>1.03</v>
       </c>
       <c r="K225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L225" t="n">
         <v>1.17</v>
@@ -26164,10 +26164,10 @@
         <v>5</v>
       </c>
       <c r="N225" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O225" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P225" t="n">
         <v>1.29</v>
@@ -26810,7 +26810,7 @@
         <v>26</v>
       </c>
       <c r="Z230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA230" t="n">
         <v>7</v>
@@ -26997,19 +26997,19 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="H232" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I232" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="J232" t="n">
         <v>1.07</v>
       </c>
       <c r="K232" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L232" t="n">
         <v>1.34</v>
@@ -27024,43 +27024,43 @@
         <v>1.72</v>
       </c>
       <c r="P232" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R232" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S232" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T232" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U232" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="V232" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W232" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X232" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y232" t="n">
         <v>35</v>
       </c>
       <c r="Z232" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA232" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB232" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC232" t="n">
         <v>70</v>
@@ -27072,19 +27072,19 @@
         <v>7.7</v>
       </c>
       <c r="AF232" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG232" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH232" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI232" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ232" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233">
@@ -27242,7 +27242,7 @@
         <v>2.55</v>
       </c>
       <c r="H234" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I234" t="n">
         <v>2.47</v>
@@ -27287,7 +27287,7 @@
         <v>9.5</v>
       </c>
       <c r="W234" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X234" t="n">
         <v>20</v>
@@ -27320,7 +27320,7 @@
         <v>9.5</v>
       </c>
       <c r="AH234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI234" t="n">
         <v>20</v>
@@ -27397,7 +27397,7 @@
         <v>1.6</v>
       </c>
       <c r="S235" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T235" t="n">
         <v>10.5</v>
@@ -27427,7 +27427,7 @@
         <v>12.5</v>
       </c>
       <c r="AC235" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD235" t="n">
         <v>300</v>
@@ -27448,7 +27448,7 @@
         <v>18</v>
       </c>
       <c r="AJ235" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
@@ -27483,7 +27483,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H236" t="n">
         <v>3.1</v>
@@ -27495,34 +27495,34 @@
         <v>1.07</v>
       </c>
       <c r="K236" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L236" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M236" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N236" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O236" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P236" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R236" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S236" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T236" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U236" t="n">
         <v>13.5</v>
@@ -27540,37 +27540,37 @@
         <v>30</v>
       </c>
       <c r="Z236" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA236" t="n">
         <v>6.1</v>
       </c>
       <c r="AB236" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC236" t="n">
         <v>60</v>
       </c>
       <c r="AD236" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE236" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF236" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG236" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH236" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI236" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237">
@@ -27605,7 +27605,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H237" t="n">
         <v>3.55</v>
@@ -27632,10 +27632,10 @@
         <v>1.85</v>
       </c>
       <c r="P237" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R237" t="n">
         <v>1.83</v>
@@ -27644,10 +27644,10 @@
         <v>1.87</v>
       </c>
       <c r="T237" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U237" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V237" t="n">
         <v>15.5</v>
@@ -27659,28 +27659,28 @@
         <v>50</v>
       </c>
       <c r="Y237" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z237" t="n">
         <v>7.4</v>
       </c>
       <c r="AA237" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB237" t="n">
         <v>16</v>
       </c>
       <c r="AC237" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD237" t="n">
         <v>600</v>
       </c>
       <c r="AE237" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF237" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG237" t="n">
         <v>8</v>
@@ -27689,7 +27689,7 @@
         <v>12.5</v>
       </c>
       <c r="AI237" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ237" t="n">
         <v>26</v>
@@ -27742,10 +27742,10 @@
         <v>7</v>
       </c>
       <c r="L238" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M238" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N238" t="n">
         <v>1.95</v>
@@ -27766,10 +27766,10 @@
         <v>1.95</v>
       </c>
       <c r="T238" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U238" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V238" t="n">
         <v>10.75</v>
@@ -27811,7 +27811,7 @@
         <v>22</v>
       </c>
       <c r="AI238" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ238" t="n">
         <v>29</v>
